--- a/Example input/IOWA inputs-HPhase4 (V2).xlsx
+++ b/Example input/IOWA inputs-HPhase4 (V2).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6449ACCE-E4E8-473E-B990-40BDBCC37C91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598EDEE5-BE83-4FC7-B5C8-685B25F4073A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="4428" windowWidth="15408" windowHeight="2712" tabRatio="824" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3024" yWindow="3288" windowWidth="17280" windowHeight="9072" tabRatio="824" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -61,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 assume wet conditions lost most N
@@ -183,10 +184,19 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={1B58B7BD-B9FF-4CCC-B621-6D574DE5BD18}</author>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1B58B7BD-B9FF-4CCC-B621-6D574DE5BD18}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    can be m (matric potential) or w (volumetric water content)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{03CEC6E8-7AC3-48E3-AC99-BF12EBB371D9}">
       <text>
         <r>
           <rPr>
@@ -252,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
+    <comment ref="AB2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
+    <comment ref="AB3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
+    <comment ref="AB4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -352,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
+    <comment ref="AB5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
+    <comment ref="AB6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
+    <comment ref="AB7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000B000000}">
+    <comment ref="AB8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -452,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000C000000}">
+    <comment ref="AB9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -477,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000D000000}">
+    <comment ref="AB10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -502,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000E000000}">
+    <comment ref="AB11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -527,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000F000000}">
+    <comment ref="AB12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000010000000}">
+    <comment ref="AB13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000010000000}">
       <text>
         <r>
           <rPr>
@@ -577,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000011000000}">
+    <comment ref="AB14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000011000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000012000000}">
+    <comment ref="AB15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000012000000}">
       <text>
         <r>
           <rPr>
@@ -627,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000013000000}">
+    <comment ref="AB16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000013000000}">
       <text>
         <r>
           <rPr>
@@ -652,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000014000000}">
+    <comment ref="AB17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000014000000}">
       <text>
         <r>
           <rPr>
@@ -677,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000015000000}">
+    <comment ref="AB18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000015000000}">
       <text>
         <r>
           <rPr>
@@ -702,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000016000000}">
+    <comment ref="AB19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000016000000}">
       <text>
         <r>
           <rPr>
@@ -727,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000017000000}">
+    <comment ref="AB20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000017000000}">
       <text>
         <r>
           <rPr>
@@ -757,7 +767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="198">
   <si>
     <t>Date</t>
   </si>
@@ -807,9 +817,6 @@
     <t>begin date</t>
   </si>
   <si>
-    <t>Soil name</t>
-  </si>
-  <si>
     <t>Hybrid</t>
   </si>
   <si>
@@ -825,21 +832,6 @@
     <t>NH4</t>
   </si>
   <si>
-    <t>HnNew</t>
-  </si>
-  <si>
-    <t>Tmpr</t>
-  </si>
-  <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>Silt</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
     <t>BD</t>
   </si>
   <si>
@@ -933,9 +925,6 @@
     <t>OutputSoilFIle</t>
   </si>
   <si>
-    <t>GDD_TO_MAT</t>
-  </si>
-  <si>
     <t>JuvenileLeaves</t>
   </si>
   <si>
@@ -1083,9 +1072,6 @@
     <t>NitrogenDefault</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
     <t>dt</t>
   </si>
   <si>
@@ -1348,6 +1334,33 @@
   </si>
   <si>
     <t>Clarion</t>
+  </si>
+  <si>
+    <t>Init Type</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>tmpr</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>silt</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>soilFile</t>
+  </si>
+  <si>
+    <t>RowSpacing</t>
+  </si>
+  <si>
+    <t>HNew</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1371,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1509,19 +1522,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1781,6 +1781,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2102,12 +2106,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2020-03-04T13:41:13.39" personId="{00000000-0000-0000-0000-000000000000}" id="{1B58B7BD-B9FF-4CCC-B621-6D574DE5BD18}">
+    <text>can be m (matric potential) or w (volumetric water content)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2129,13 +2141,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>14</v>
@@ -2144,380 +2156,380 @@
         <v>13</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="41" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="41" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="41" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H4" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>160</v>
-      </c>
       <c r="K4" s="31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="41" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="41" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F6" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>135</v>
-      </c>
       <c r="J6" s="47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="41" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F7" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>136</v>
-      </c>
       <c r="J7" s="47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="41" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="41" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K9" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>138</v>
-      </c>
       <c r="N9" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2547,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2558,173 +2570,178 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AI62"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="8" customWidth="1"/>
-    <col min="7" max="13" width="14.6640625" style="8" customWidth="1"/>
-    <col min="14" max="22" width="13" style="33" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="8"/>
+    <col min="2" max="2" width="14.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="48" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="8" customWidth="1"/>
+    <col min="8" max="14" width="14.6640625" style="8" customWidth="1"/>
+    <col min="15" max="23" width="13" style="33" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="8" t="s">
-        <v>16</v>
+    <row r="1" spans="1:36">
+      <c r="A1" s="48" t="s">
+        <v>195</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="M1" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="N1" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="W1" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="X1" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+        <v>86</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B2" s="8">
         <v>23</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="33">
         <v>3.7840000000000006E-2</v>
-      </c>
-      <c r="D2" s="33">
-        <v>5.0999999999999996</v>
       </c>
       <c r="E2" s="33">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="33">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G2" s="8">
         <v>-200</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>18</v>
       </c>
-      <c r="H2" s="33">
+      <c r="I2" s="33">
         <v>47.6</v>
       </c>
-      <c r="I2" s="33">
+      <c r="J2" s="33">
         <v>31.8</v>
       </c>
-      <c r="J2" s="33">
+      <c r="K2" s="33">
         <v>20.6</v>
       </c>
-      <c r="K2" s="33">
+      <c r="L2" s="33">
         <v>1.51</v>
       </c>
-      <c r="L2" s="46">
+      <c r="M2" s="46">
         <v>0.30502000000000001</v>
       </c>
-      <c r="M2" s="46">
+      <c r="N2" s="46">
         <v>0.15553</v>
       </c>
-      <c r="N2" s="33">
-        <v>-1</v>
-      </c>
       <c r="O2" s="33">
         <v>-1</v>
       </c>
@@ -2749,89 +2766,92 @@
       <c r="V2" s="33">
         <v>-1</v>
       </c>
-      <c r="W2" s="23">
+      <c r="W2" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X2" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X2" s="23">
+      <c r="Y2" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Z2" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z2" s="23">
+      <c r="AA2" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AB2" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>0.6</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0.2</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>10</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>50</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>10</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>0.1</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>8</v>
       </c>
-      <c r="AI2" s="23">
+      <c r="AJ2" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="A3" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B3" s="8">
         <v>33</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="33">
         <v>2.4080000000000001E-2</v>
-      </c>
-      <c r="D3" s="33">
-        <v>4.5999999999999996</v>
       </c>
       <c r="E3" s="33">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G3" s="8">
         <v>-200</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>18</v>
       </c>
-      <c r="H3" s="33">
+      <c r="I3" s="33">
         <v>46.3</v>
       </c>
-      <c r="I3" s="33">
+      <c r="J3" s="33">
         <v>29.7</v>
       </c>
-      <c r="J3" s="33">
+      <c r="K3" s="33">
         <v>24</v>
       </c>
-      <c r="K3" s="33">
+      <c r="L3" s="33">
         <v>1.42</v>
       </c>
-      <c r="L3" s="46">
+      <c r="M3" s="46">
         <v>0.28967999999999994</v>
       </c>
-      <c r="M3" s="46">
+      <c r="N3" s="46">
         <v>0.16045999999999999</v>
       </c>
-      <c r="N3" s="33">
-        <v>-1</v>
-      </c>
       <c r="O3" s="33">
         <v>-1</v>
       </c>
@@ -2856,89 +2876,92 @@
       <c r="V3" s="33">
         <v>-1</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X3" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X3" s="23">
+      <c r="Y3" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y3" s="23">
+      <c r="Z3" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="AA3" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA3" s="23">
+      <c r="AB3" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.6</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.2</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>10</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>50</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>10</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.1</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>8</v>
       </c>
-      <c r="AI3" s="23">
+      <c r="AJ3" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:36">
       <c r="A4" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B4" s="8">
         <v>48</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="33">
         <v>1.4964E-2</v>
-      </c>
-      <c r="D4" s="33">
-        <v>3.4</v>
       </c>
       <c r="E4" s="33">
         <v>3.4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="G4" s="8">
         <v>-200</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>18</v>
       </c>
-      <c r="H4" s="33">
+      <c r="I4" s="33">
         <v>49.6</v>
       </c>
-      <c r="I4" s="33">
+      <c r="J4" s="33">
         <v>28.1</v>
       </c>
-      <c r="J4" s="33">
+      <c r="K4" s="33">
         <v>22.3</v>
       </c>
-      <c r="K4" s="33">
+      <c r="L4" s="33">
         <v>1.42</v>
       </c>
-      <c r="L4" s="46">
+      <c r="M4" s="46">
         <v>0.28967999999999994</v>
       </c>
-      <c r="M4" s="46">
+      <c r="N4" s="46">
         <v>0.15051999999999999</v>
       </c>
-      <c r="N4" s="33">
-        <v>-1</v>
-      </c>
       <c r="O4" s="33">
         <v>-1</v>
       </c>
@@ -2963,89 +2986,92 @@
       <c r="V4" s="33">
         <v>-1</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X4" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X4" s="23">
+      <c r="Y4" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y4" s="23">
+      <c r="Z4" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="AA4" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA4" s="23">
+      <c r="AB4" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.6</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.2</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>10</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>50</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>10</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>0.1</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>8</v>
       </c>
-      <c r="AI4" s="23">
+      <c r="AJ4" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:36">
       <c r="A5" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B5" s="8">
         <v>70</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="33">
         <v>9.1160000000000008E-3</v>
-      </c>
-      <c r="D5" s="33">
-        <v>2.9</v>
       </c>
       <c r="E5" s="33">
         <v>2.9</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="33">
+        <v>2.9</v>
+      </c>
+      <c r="G5" s="8">
         <v>-200</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>23</v>
       </c>
-      <c r="H5" s="33">
+      <c r="I5" s="33">
         <v>51.4</v>
       </c>
-      <c r="I5" s="33">
+      <c r="J5" s="33">
         <v>28</v>
       </c>
-      <c r="J5" s="33">
+      <c r="K5" s="33">
         <v>20.6</v>
       </c>
-      <c r="K5" s="33">
+      <c r="L5" s="33">
         <v>1.43</v>
       </c>
-      <c r="L5" s="46">
+      <c r="M5" s="46">
         <v>0.24881999999999999</v>
       </c>
-      <c r="M5" s="46">
+      <c r="N5" s="46">
         <v>0.13727999999999999</v>
       </c>
-      <c r="N5" s="33">
-        <v>-1</v>
-      </c>
       <c r="O5" s="33">
         <v>-1</v>
       </c>
@@ -3070,89 +3096,92 @@
       <c r="V5" s="33">
         <v>-1</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X5" s="23">
+      <c r="Y5" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Z5" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="AA5" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AB5" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.6</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>0.2</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>10</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>50</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>10</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.1</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>8</v>
       </c>
-      <c r="AI5" s="23">
+      <c r="AJ5" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:36">
       <c r="A6" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B6" s="8">
         <v>87</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="33">
         <v>6.5359999999999993E-3</v>
-      </c>
-      <c r="D6" s="33">
-        <v>1.3</v>
       </c>
       <c r="E6" s="33">
         <v>1.3</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="G6" s="8">
         <v>-200</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>23</v>
       </c>
-      <c r="H6" s="33">
+      <c r="I6" s="33">
         <v>52.4</v>
       </c>
-      <c r="I6" s="33">
+      <c r="J6" s="33">
         <v>29.4</v>
       </c>
-      <c r="J6" s="33">
+      <c r="K6" s="33">
         <v>18.2</v>
       </c>
-      <c r="K6" s="33">
+      <c r="L6" s="33">
         <v>1.42</v>
       </c>
-      <c r="L6" s="46">
+      <c r="M6" s="46">
         <v>0.23430000000000001</v>
       </c>
-      <c r="M6" s="46">
+      <c r="N6" s="46">
         <v>0.11785999999999999</v>
       </c>
-      <c r="N6" s="33">
-        <v>-1</v>
-      </c>
       <c r="O6" s="33">
         <v>-1</v>
       </c>
@@ -3177,89 +3206,92 @@
       <c r="V6" s="33">
         <v>-1</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X6" s="23">
+      <c r="Y6" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y6" s="23">
+      <c r="Z6" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="AA6" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AB6" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.6</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>0.2</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>10</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>50</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>10</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.1</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>8</v>
       </c>
-      <c r="AI6" s="23">
+      <c r="AJ6" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B7" s="8">
         <v>102</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="33">
         <v>3.2679999999999996E-3</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0.6</v>
       </c>
       <c r="E7" s="33">
         <v>0.6</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="8">
         <v>-100</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>23</v>
       </c>
-      <c r="H7" s="33">
+      <c r="I7" s="33">
         <v>50</v>
       </c>
-      <c r="I7" s="33">
+      <c r="J7" s="33">
         <v>34.5</v>
       </c>
-      <c r="J7" s="33">
+      <c r="K7" s="33">
         <v>15.5</v>
       </c>
-      <c r="K7" s="33">
+      <c r="L7" s="33">
         <v>1.53</v>
       </c>
-      <c r="L7" s="46">
+      <c r="M7" s="46">
         <v>0.24021000000000001</v>
       </c>
-      <c r="M7" s="46">
+      <c r="N7" s="46">
         <v>0.12087000000000002</v>
       </c>
-      <c r="N7" s="33">
-        <v>-1</v>
-      </c>
       <c r="O7" s="33">
         <v>-1</v>
       </c>
@@ -3284,89 +3316,92 @@
       <c r="V7" s="33">
         <v>-1</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X7" s="23">
+      <c r="Y7" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Z7" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="AA7" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA7" s="23">
+      <c r="AB7" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB7" s="33">
+      <c r="AC7" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC7" s="33">
+      <c r="AD7" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD7" s="33">
+      <c r="AE7" s="33">
         <v>10</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AF7" s="33">
         <v>50</v>
       </c>
-      <c r="AF7" s="33">
+      <c r="AG7" s="33">
         <v>10</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AH7" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH7" s="33">
+      <c r="AI7" s="33">
         <v>8</v>
       </c>
-      <c r="AI7" s="23">
+      <c r="AJ7" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:36">
       <c r="A8" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8">
         <v>120</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="33">
         <v>1.5479999999999999E-3</v>
-      </c>
-      <c r="D8" s="33">
-        <v>0.2</v>
       </c>
       <c r="E8" s="33">
         <v>0.2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="8">
         <v>-100</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>23</v>
       </c>
-      <c r="H8" s="33">
+      <c r="I8" s="33">
         <v>50.9</v>
       </c>
-      <c r="I8" s="33">
+      <c r="J8" s="33">
         <v>34.799999999999997</v>
       </c>
-      <c r="J8" s="33">
+      <c r="K8" s="33">
         <v>14.3</v>
       </c>
-      <c r="K8" s="33">
+      <c r="L8" s="33">
         <v>1.76</v>
       </c>
-      <c r="L8" s="46">
+      <c r="M8" s="46">
         <v>0.26576</v>
       </c>
-      <c r="M8" s="46">
+      <c r="N8" s="46">
         <v>0.13904</v>
       </c>
-      <c r="N8" s="33">
-        <v>-1</v>
-      </c>
       <c r="O8" s="33">
         <v>-1</v>
       </c>
@@ -3391,89 +3426,92 @@
       <c r="V8" s="33">
         <v>-1</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X8" s="23">
+      <c r="Y8" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Z8" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="AA8" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AB8" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB8" s="33">
+      <c r="AC8" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC8" s="33">
+      <c r="AD8" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD8" s="33">
+      <c r="AE8" s="33">
         <v>10</v>
       </c>
-      <c r="AE8" s="33">
+      <c r="AF8" s="33">
         <v>50</v>
       </c>
-      <c r="AF8" s="33">
+      <c r="AG8" s="33">
         <v>10</v>
       </c>
-      <c r="AG8" s="33">
+      <c r="AH8" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH8" s="33">
+      <c r="AI8" s="33">
         <v>8</v>
       </c>
-      <c r="AI8" s="23">
+      <c r="AJ8" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:36">
       <c r="A9" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B9" s="8">
         <v>151</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="33">
         <v>1.3760000000000001E-3</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0.2</v>
       </c>
       <c r="E9" s="33">
         <v>0.2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="8">
         <v>-100</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>23</v>
       </c>
-      <c r="H9" s="33">
+      <c r="I9" s="33">
         <v>52.2</v>
       </c>
-      <c r="I9" s="33">
+      <c r="J9" s="33">
         <v>33.4</v>
       </c>
-      <c r="J9" s="33">
+      <c r="K9" s="33">
         <v>14.4</v>
       </c>
-      <c r="K9" s="33">
+      <c r="L9" s="33">
         <v>1.82</v>
       </c>
-      <c r="L9" s="46">
+      <c r="M9" s="46">
         <v>0.28210000000000002</v>
       </c>
-      <c r="M9" s="46">
+      <c r="N9" s="46">
         <v>0.13650000000000001</v>
       </c>
-      <c r="N9" s="33">
-        <v>-1</v>
-      </c>
       <c r="O9" s="33">
         <v>-1</v>
       </c>
@@ -3498,89 +3536,92 @@
       <c r="V9" s="33">
         <v>-1</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W9" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X9" s="23">
+      <c r="Y9" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Z9" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="AA9" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AB9" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB9" s="33">
+      <c r="AC9" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC9" s="33">
+      <c r="AD9" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD9" s="33">
+      <c r="AE9" s="33">
         <v>10</v>
       </c>
-      <c r="AE9" s="33">
+      <c r="AF9" s="33">
         <v>50</v>
       </c>
-      <c r="AF9" s="33">
+      <c r="AG9" s="33">
         <v>10</v>
       </c>
-      <c r="AG9" s="33">
+      <c r="AH9" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH9" s="33">
+      <c r="AI9" s="33">
         <v>8</v>
       </c>
-      <c r="AI9" s="23">
+      <c r="AJ9" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:36">
       <c r="A10" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B10" s="8">
         <v>183</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="33">
         <v>1.204E-3</v>
-      </c>
-      <c r="D10" s="36">
-        <v>0.2</v>
       </c>
       <c r="E10" s="36">
         <v>0.2</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="8">
         <v>-100</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>23</v>
       </c>
-      <c r="H10" s="33">
+      <c r="I10" s="33">
         <v>52.7</v>
       </c>
-      <c r="I10" s="33">
+      <c r="J10" s="33">
         <v>32.5</v>
       </c>
-      <c r="J10" s="33">
+      <c r="K10" s="33">
         <v>14.8</v>
       </c>
-      <c r="K10" s="33">
+      <c r="L10" s="33">
         <v>1.79</v>
       </c>
-      <c r="L10" s="46">
+      <c r="M10" s="46">
         <v>0.28819</v>
       </c>
-      <c r="M10" s="46">
+      <c r="N10" s="46">
         <v>0.13603999999999999</v>
       </c>
-      <c r="N10" s="33">
-        <v>-1</v>
-      </c>
       <c r="O10" s="33">
         <v>-1</v>
       </c>
@@ -3605,89 +3646,92 @@
       <c r="V10" s="33">
         <v>-1</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X10" s="23">
+      <c r="Y10" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Z10" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="AA10" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="AB10" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB10" s="33">
+      <c r="AC10" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC10" s="33">
+      <c r="AD10" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD10" s="33">
+      <c r="AE10" s="33">
         <v>10</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AF10" s="33">
         <v>50</v>
       </c>
-      <c r="AF10" s="33">
+      <c r="AG10" s="33">
         <v>10</v>
       </c>
-      <c r="AG10" s="33">
+      <c r="AH10" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH10" s="33">
+      <c r="AI10" s="33">
         <v>8</v>
       </c>
-      <c r="AI10" s="23">
+      <c r="AJ10" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:36">
       <c r="A11" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B11" s="8">
         <v>200</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="33">
         <v>8.6000000000000009E-4</v>
-      </c>
-      <c r="D11" s="36">
-        <v>0.2</v>
       </c>
       <c r="E11" s="36">
         <v>0.2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="8">
         <v>-100</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>23</v>
       </c>
-      <c r="H11" s="33">
+      <c r="I11" s="33">
         <v>52.6</v>
       </c>
-      <c r="I11" s="33">
+      <c r="J11" s="33">
         <v>33.200000000000003</v>
       </c>
-      <c r="J11" s="33">
+      <c r="K11" s="33">
         <v>14.2</v>
       </c>
-      <c r="K11" s="36">
+      <c r="L11" s="36">
         <v>1.79</v>
       </c>
-      <c r="L11" s="46">
+      <c r="M11" s="46">
         <v>0.28819</v>
       </c>
-      <c r="M11" s="46">
+      <c r="N11" s="46">
         <v>0.13425000000000001</v>
       </c>
-      <c r="N11" s="33">
-        <v>-1</v>
-      </c>
       <c r="O11" s="33">
         <v>-1</v>
       </c>
@@ -3712,89 +3756,92 @@
       <c r="V11" s="33">
         <v>-1</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X11" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X11" s="23">
+      <c r="Y11" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y11" s="23">
+      <c r="Z11" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="AA11" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA11" s="23">
+      <c r="AB11" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB11" s="33">
+      <c r="AC11" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC11" s="33">
+      <c r="AD11" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD11" s="33">
+      <c r="AE11" s="33">
         <v>10</v>
       </c>
-      <c r="AE11" s="33">
+      <c r="AF11" s="33">
         <v>50</v>
       </c>
-      <c r="AF11" s="33">
+      <c r="AG11" s="33">
         <v>10</v>
       </c>
-      <c r="AG11" s="33">
+      <c r="AH11" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH11" s="33">
+      <c r="AI11" s="33">
         <v>8</v>
       </c>
-      <c r="AI11" s="23">
+      <c r="AJ11" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.6">
+    <row r="12" spans="1:36" ht="15.6">
       <c r="A12" s="45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B12" s="8">
         <v>19</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="8">
         <v>8.7719999999999979E-2</v>
-      </c>
-      <c r="D12" s="44">
-        <v>2.2000000000000002</v>
       </c>
       <c r="E12" s="44">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="44">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12" s="8">
         <v>-100</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>18</v>
       </c>
-      <c r="H12" s="33">
+      <c r="I12" s="33">
         <v>41.3</v>
       </c>
-      <c r="I12" s="33">
+      <c r="J12" s="33">
         <v>34.799999999999997</v>
       </c>
-      <c r="J12" s="33">
+      <c r="K12" s="33">
         <v>23.9</v>
       </c>
-      <c r="K12" s="33">
+      <c r="L12" s="33">
         <v>1.41</v>
       </c>
-      <c r="L12" s="46">
+      <c r="M12" s="46">
         <v>0.38211000000000001</v>
       </c>
-      <c r="M12" s="46">
+      <c r="N12" s="46">
         <v>0.20867999999999998</v>
       </c>
-      <c r="N12" s="33">
-        <v>-1</v>
-      </c>
       <c r="O12" s="33">
         <v>-1</v>
       </c>
@@ -3819,89 +3866,92 @@
       <c r="V12" s="33">
         <v>-1</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X12" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X12" s="23">
+      <c r="Y12" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y12" s="23">
+      <c r="Z12" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z12" s="23">
+      <c r="AA12" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA12" s="23">
+      <c r="AB12" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB12" s="33">
+      <c r="AC12" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC12" s="33">
+      <c r="AD12" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD12" s="33">
+      <c r="AE12" s="33">
         <v>10</v>
       </c>
-      <c r="AE12" s="33">
+      <c r="AF12" s="33">
         <v>50</v>
       </c>
-      <c r="AF12" s="33">
+      <c r="AG12" s="33">
         <v>10</v>
       </c>
-      <c r="AG12" s="33">
+      <c r="AH12" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH12" s="33">
+      <c r="AI12" s="33">
         <v>8</v>
       </c>
-      <c r="AI12" s="23">
+      <c r="AJ12" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15.6">
+    <row r="13" spans="1:36" ht="15.6">
       <c r="A13" s="45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B13" s="8">
         <v>28</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="8">
         <v>7.9119999999999996E-2</v>
-      </c>
-      <c r="D13" s="44">
-        <v>1.4</v>
       </c>
       <c r="E13" s="44">
         <v>1.4</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="G13" s="8">
         <v>-100</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>18</v>
       </c>
-      <c r="H13" s="33">
+      <c r="I13" s="33">
         <v>35.9</v>
       </c>
-      <c r="I13" s="33">
+      <c r="J13" s="33">
         <v>36.200000000000003</v>
       </c>
-      <c r="J13" s="33">
+      <c r="K13" s="33">
         <v>27.9</v>
       </c>
-      <c r="K13" s="33">
+      <c r="L13" s="33">
         <v>1.35</v>
       </c>
-      <c r="L13" s="46">
+      <c r="M13" s="46">
         <v>0.37395</v>
       </c>
-      <c r="M13" s="46">
+      <c r="N13" s="46">
         <v>0.25514999999999999</v>
       </c>
-      <c r="N13" s="33">
-        <v>-1</v>
-      </c>
       <c r="O13" s="33">
         <v>-1</v>
       </c>
@@ -3926,89 +3976,92 @@
       <c r="V13" s="33">
         <v>-1</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X13" s="23">
+      <c r="Y13" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y13" s="23">
+      <c r="Z13" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z13" s="23">
+      <c r="AA13" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA13" s="23">
+      <c r="AB13" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB13" s="33">
+      <c r="AC13" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC13" s="33">
+      <c r="AD13" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD13" s="33">
+      <c r="AE13" s="33">
         <v>10</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AF13" s="33">
         <v>50</v>
       </c>
-      <c r="AF13" s="33">
+      <c r="AG13" s="33">
         <v>10</v>
       </c>
-      <c r="AG13" s="33">
+      <c r="AH13" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH13" s="33">
+      <c r="AI13" s="33">
         <v>8</v>
       </c>
-      <c r="AI13" s="23">
+      <c r="AJ13" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15.6">
+    <row r="14" spans="1:36" ht="15.6">
       <c r="A14" s="45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B14" s="8">
         <v>44</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="8">
         <v>5.8479999999999997E-2</v>
-      </c>
-      <c r="D14" s="44">
-        <v>0.87</v>
       </c>
       <c r="E14" s="44">
         <v>0.87</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="44">
+        <v>0.87</v>
+      </c>
+      <c r="G14" s="8">
         <v>-100</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <v>18</v>
       </c>
-      <c r="H14" s="33">
+      <c r="I14" s="33">
         <v>39.799999999999997</v>
       </c>
-      <c r="I14" s="33">
+      <c r="J14" s="33">
         <v>31.2</v>
       </c>
-      <c r="J14" s="33">
+      <c r="K14" s="33">
         <v>29</v>
       </c>
-      <c r="K14" s="33">
+      <c r="L14" s="33">
         <v>1.45</v>
       </c>
-      <c r="L14" s="46">
+      <c r="M14" s="46">
         <v>0.30740000000000001</v>
       </c>
-      <c r="M14" s="46">
+      <c r="N14" s="46">
         <v>0.20155000000000001</v>
       </c>
-      <c r="N14" s="33">
-        <v>-1</v>
-      </c>
       <c r="O14" s="33">
         <v>-1</v>
       </c>
@@ -4033,89 +4086,92 @@
       <c r="V14" s="33">
         <v>-1</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X14" s="23">
+      <c r="Y14" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Z14" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z14" s="23">
+      <c r="AA14" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA14" s="23">
+      <c r="AB14" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB14" s="33">
+      <c r="AC14" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC14" s="33">
+      <c r="AD14" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD14" s="33">
+      <c r="AE14" s="33">
         <v>10</v>
       </c>
-      <c r="AE14" s="33">
+      <c r="AF14" s="33">
         <v>50</v>
       </c>
-      <c r="AF14" s="33">
+      <c r="AG14" s="33">
         <v>10</v>
       </c>
-      <c r="AG14" s="33">
+      <c r="AH14" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH14" s="33">
+      <c r="AI14" s="33">
         <v>8</v>
       </c>
-      <c r="AI14" s="23">
+      <c r="AJ14" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15.6">
+    <row r="15" spans="1:36" ht="15.6">
       <c r="A15" s="45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B15" s="8">
         <v>64</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="8">
         <v>4.9879999999999994E-2</v>
-      </c>
-      <c r="D15" s="44">
-        <v>0.53</v>
       </c>
       <c r="E15" s="44">
         <v>0.53</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="44">
+        <v>0.53</v>
+      </c>
+      <c r="G15" s="8">
         <v>-100</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="8">
         <v>23</v>
       </c>
-      <c r="H15" s="33">
+      <c r="I15" s="33">
         <v>38.299999999999997</v>
       </c>
-      <c r="I15" s="33">
+      <c r="J15" s="33">
         <v>33.9</v>
       </c>
-      <c r="J15" s="33">
+      <c r="K15" s="33">
         <v>27.8</v>
       </c>
-      <c r="K15" s="33">
+      <c r="L15" s="33">
         <v>1.45</v>
       </c>
-      <c r="L15" s="46">
+      <c r="M15" s="46">
         <v>0.27550000000000002</v>
       </c>
-      <c r="M15" s="46">
+      <c r="N15" s="46">
         <v>0.17689999999999997</v>
       </c>
-      <c r="N15" s="33">
-        <v>-1</v>
-      </c>
       <c r="O15" s="33">
         <v>-1</v>
       </c>
@@ -4140,89 +4196,92 @@
       <c r="V15" s="33">
         <v>-1</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X15" s="23">
+      <c r="Y15" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="Z15" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z15" s="23">
+      <c r="AA15" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA15" s="23">
+      <c r="AB15" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB15" s="33">
+      <c r="AC15" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC15" s="33">
+      <c r="AD15" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD15" s="33">
+      <c r="AE15" s="33">
         <v>10</v>
       </c>
-      <c r="AE15" s="33">
+      <c r="AF15" s="33">
         <v>50</v>
       </c>
-      <c r="AF15" s="33">
+      <c r="AG15" s="33">
         <v>10</v>
       </c>
-      <c r="AG15" s="33">
+      <c r="AH15" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH15" s="33">
+      <c r="AI15" s="33">
         <v>8</v>
       </c>
-      <c r="AI15" s="23">
+      <c r="AJ15" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15.6">
+    <row r="16" spans="1:36" ht="15.6">
       <c r="A16" s="45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B16" s="8">
         <v>85</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="8">
         <v>2.2360000000000001E-2</v>
-      </c>
-      <c r="D16" s="44">
-        <v>0.38</v>
       </c>
       <c r="E16" s="44">
         <v>0.38</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="44">
+        <v>0.38</v>
+      </c>
+      <c r="G16" s="8">
         <v>-100</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="8">
         <v>23</v>
       </c>
-      <c r="H16" s="33">
+      <c r="I16" s="33">
         <v>53.2</v>
       </c>
-      <c r="I16" s="33">
+      <c r="J16" s="33">
         <v>27.7</v>
       </c>
-      <c r="J16" s="33">
+      <c r="K16" s="33">
         <v>19.100000000000001</v>
       </c>
-      <c r="K16" s="33">
+      <c r="L16" s="33">
         <v>1.56</v>
       </c>
-      <c r="L16" s="46">
+      <c r="M16" s="46">
         <v>0.21371999999999999</v>
       </c>
-      <c r="M16" s="46">
+      <c r="N16" s="46">
         <v>0.14351999999999998</v>
       </c>
-      <c r="N16" s="33">
-        <v>-1</v>
-      </c>
       <c r="O16" s="33">
         <v>-1</v>
       </c>
@@ -4247,89 +4306,92 @@
       <c r="V16" s="33">
         <v>-1</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X16" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X16" s="23">
+      <c r="Y16" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Z16" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z16" s="23">
+      <c r="AA16" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA16" s="23">
+      <c r="AB16" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB16" s="33">
+      <c r="AC16" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC16" s="33">
+      <c r="AD16" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD16" s="33">
+      <c r="AE16" s="33">
         <v>10</v>
       </c>
-      <c r="AE16" s="33">
+      <c r="AF16" s="33">
         <v>50</v>
       </c>
-      <c r="AF16" s="33">
+      <c r="AG16" s="33">
         <v>10</v>
       </c>
-      <c r="AG16" s="33">
+      <c r="AH16" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH16" s="33">
+      <c r="AI16" s="33">
         <v>8</v>
       </c>
-      <c r="AI16" s="23">
+      <c r="AJ16" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15.6">
+    <row r="17" spans="1:36" ht="15.6">
       <c r="A17" s="45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B17" s="8">
         <v>103</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="8">
         <v>1.0320000000000001E-2</v>
-      </c>
-      <c r="D17" s="44">
-        <v>0.19</v>
       </c>
       <c r="E17" s="44">
         <v>0.19</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="44">
+        <v>0.19</v>
+      </c>
+      <c r="G17" s="8">
         <v>-100</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="8">
         <v>23</v>
       </c>
-      <c r="H17" s="33">
+      <c r="I17" s="33">
         <v>60.5</v>
       </c>
-      <c r="I17" s="33">
+      <c r="J17" s="33">
         <v>24.8</v>
       </c>
-      <c r="J17" s="33">
+      <c r="K17" s="33">
         <v>14.7</v>
       </c>
-      <c r="K17" s="33">
+      <c r="L17" s="33">
         <v>1.49</v>
       </c>
-      <c r="L17" s="46">
+      <c r="M17" s="46">
         <v>0.25329999999999997</v>
       </c>
-      <c r="M17" s="46">
+      <c r="N17" s="46">
         <v>0.11622</v>
       </c>
-      <c r="N17" s="33">
-        <v>-1</v>
-      </c>
       <c r="O17" s="33">
         <v>-1</v>
       </c>
@@ -4354,89 +4416,92 @@
       <c r="V17" s="33">
         <v>-1</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X17" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X17" s="23">
+      <c r="Y17" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Z17" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z17" s="23">
+      <c r="AA17" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA17" s="23">
+      <c r="AB17" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB17" s="33">
+      <c r="AC17" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC17" s="33">
+      <c r="AD17" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD17" s="33">
+      <c r="AE17" s="33">
         <v>10</v>
       </c>
-      <c r="AE17" s="33">
+      <c r="AF17" s="33">
         <v>50</v>
       </c>
-      <c r="AF17" s="33">
+      <c r="AG17" s="33">
         <v>10</v>
       </c>
-      <c r="AG17" s="33">
+      <c r="AH17" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH17" s="33">
+      <c r="AI17" s="33">
         <v>8</v>
       </c>
-      <c r="AI17" s="23">
+      <c r="AJ17" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15.6">
+    <row r="18" spans="1:36" ht="15.6">
       <c r="A18" s="45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B18" s="8">
         <v>132</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="8">
         <v>3.4400000000000003E-3</v>
-      </c>
-      <c r="D18" s="44">
-        <v>0.09</v>
       </c>
       <c r="E18" s="44">
         <v>0.09</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="44">
+        <v>0.09</v>
+      </c>
+      <c r="G18" s="8">
         <v>-100</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="8">
         <v>23</v>
       </c>
-      <c r="H18" s="33">
+      <c r="I18" s="33">
         <v>40.700000000000003</v>
       </c>
-      <c r="I18" s="33">
+      <c r="J18" s="33">
         <v>33.9</v>
       </c>
-      <c r="J18" s="33">
+      <c r="K18" s="33">
         <v>25.4</v>
       </c>
-      <c r="K18" s="33">
+      <c r="L18" s="33">
         <v>1.43</v>
       </c>
-      <c r="L18" s="46">
+      <c r="M18" s="46">
         <v>0.35464000000000001</v>
       </c>
-      <c r="M18" s="46">
+      <c r="N18" s="46">
         <v>0.20163</v>
       </c>
-      <c r="N18" s="33">
-        <v>-1</v>
-      </c>
       <c r="O18" s="33">
         <v>-1</v>
       </c>
@@ -4461,89 +4526,92 @@
       <c r="V18" s="33">
         <v>-1</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X18" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X18" s="23">
+      <c r="Y18" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y18" s="23">
+      <c r="Z18" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z18" s="23">
+      <c r="AA18" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA18" s="23">
+      <c r="AB18" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB18" s="33">
+      <c r="AC18" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC18" s="33">
+      <c r="AD18" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD18" s="33">
+      <c r="AE18" s="33">
         <v>10</v>
       </c>
-      <c r="AE18" s="33">
+      <c r="AF18" s="33">
         <v>50</v>
       </c>
-      <c r="AF18" s="33">
+      <c r="AG18" s="33">
         <v>10</v>
       </c>
-      <c r="AG18" s="33">
+      <c r="AH18" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH18" s="33">
+      <c r="AI18" s="33">
         <v>8</v>
       </c>
-      <c r="AI18" s="23">
+      <c r="AJ18" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15.6">
+    <row r="19" spans="1:36" ht="15.6">
       <c r="A19" s="45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B19" s="8">
         <v>155</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="8">
         <v>3.4400000000000003E-3</v>
-      </c>
-      <c r="D19" s="44">
-        <v>0.08</v>
       </c>
       <c r="E19" s="44">
         <v>0.08</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="44">
+        <v>0.08</v>
+      </c>
+      <c r="G19" s="8">
         <v>-100</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="8">
         <v>23</v>
       </c>
-      <c r="H19" s="33">
+      <c r="I19" s="33">
         <v>39.4</v>
       </c>
-      <c r="I19" s="33">
+      <c r="J19" s="33">
         <v>36.1</v>
       </c>
-      <c r="J19" s="33">
+      <c r="K19" s="33">
         <v>24.5</v>
       </c>
-      <c r="K19" s="33">
+      <c r="L19" s="33">
         <v>1.45</v>
       </c>
-      <c r="L19" s="46">
+      <c r="M19" s="46">
         <v>0.36829999999999996</v>
       </c>
-      <c r="M19" s="46">
+      <c r="N19" s="46">
         <v>0.19139999999999996</v>
       </c>
-      <c r="N19" s="33">
-        <v>-1</v>
-      </c>
       <c r="O19" s="33">
         <v>-1</v>
       </c>
@@ -4568,89 +4636,92 @@
       <c r="V19" s="33">
         <v>-1</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X19" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X19" s="23">
+      <c r="Y19" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y19" s="23">
+      <c r="Z19" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z19" s="23">
+      <c r="AA19" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA19" s="23">
+      <c r="AB19" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB19" s="33">
+      <c r="AC19" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC19" s="33">
+      <c r="AD19" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD19" s="33">
+      <c r="AE19" s="33">
         <v>10</v>
       </c>
-      <c r="AE19" s="33">
+      <c r="AF19" s="33">
         <v>50</v>
       </c>
-      <c r="AF19" s="33">
+      <c r="AG19" s="33">
         <v>10</v>
       </c>
-      <c r="AG19" s="33">
+      <c r="AH19" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH19" s="33">
+      <c r="AI19" s="33">
         <v>8</v>
       </c>
-      <c r="AI19" s="23">
+      <c r="AJ19" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15.6">
+    <row r="20" spans="1:36" ht="15.6">
       <c r="A20" s="45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B20" s="8">
         <v>200</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="8">
         <v>3.4400000000000003E-3</v>
-      </c>
-      <c r="D20" s="44">
-        <v>0.05</v>
       </c>
       <c r="E20" s="44">
         <v>0.05</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="8">
         <v>-100</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="8">
         <v>23</v>
       </c>
-      <c r="H20" s="36">
+      <c r="I20" s="36">
         <v>39.4</v>
       </c>
-      <c r="I20" s="36">
+      <c r="J20" s="36">
         <v>36.1</v>
       </c>
-      <c r="J20" s="36">
+      <c r="K20" s="36">
         <v>24.5</v>
       </c>
-      <c r="K20" s="36">
+      <c r="L20" s="36">
         <v>1.45</v>
       </c>
-      <c r="L20" s="46">
+      <c r="M20" s="46">
         <v>0.36829999999999996</v>
       </c>
-      <c r="M20" s="46">
+      <c r="N20" s="46">
         <v>0.19139999999999996</v>
       </c>
-      <c r="N20" s="33">
-        <v>-1</v>
-      </c>
       <c r="O20" s="33">
         <v>-1</v>
       </c>
@@ -4675,425 +4746,428 @@
       <c r="V20" s="33">
         <v>-1</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="33">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="23">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="X20" s="23">
+      <c r="Y20" s="23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y20" s="23">
+      <c r="Z20" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z20" s="23">
+      <c r="AA20" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA20" s="23">
+      <c r="AB20" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB20" s="33">
+      <c r="AC20" s="33">
         <v>0.6</v>
       </c>
-      <c r="AC20" s="33">
+      <c r="AD20" s="33">
         <v>0.2</v>
       </c>
-      <c r="AD20" s="33">
+      <c r="AE20" s="33">
         <v>10</v>
       </c>
-      <c r="AE20" s="33">
+      <c r="AF20" s="33">
         <v>50</v>
       </c>
-      <c r="AF20" s="33">
+      <c r="AG20" s="33">
         <v>10</v>
       </c>
-      <c r="AG20" s="33">
+      <c r="AH20" s="33">
         <v>0.1</v>
       </c>
-      <c r="AH20" s="33">
+      <c r="AI20" s="33">
         <v>8</v>
       </c>
-      <c r="AI20" s="23">
+      <c r="AJ20" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15.6">
+    <row r="21" spans="1:36" ht="15.6">
       <c r="A21" s="10"/>
-      <c r="D21" s="44"/>
       <c r="E21" s="44"/>
-      <c r="W21" s="13"/>
+      <c r="F21" s="44"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
-      <c r="AI21" s="13"/>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AB21" s="13"/>
+      <c r="AJ21" s="13"/>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="10"/>
-      <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
-      <c r="AI22" s="13"/>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AB22" s="13"/>
+      <c r="AJ22" s="13"/>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="10"/>
-      <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
-      <c r="AI23" s="13"/>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="AB23" s="13"/>
+      <c r="AJ23" s="13"/>
+    </row>
+    <row r="24" spans="1:36">
       <c r="A24" s="10"/>
-      <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
-      <c r="AI24" s="13"/>
-    </row>
-    <row r="25" spans="1:35">
+      <c r="AB24" s="13"/>
+      <c r="AJ24" s="13"/>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25" s="10"/>
-      <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
-      <c r="AI25" s="13"/>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AB25" s="13"/>
+      <c r="AJ25" s="13"/>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26" s="10"/>
-      <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
-      <c r="AI26" s="13"/>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AB26" s="13"/>
+      <c r="AJ26" s="13"/>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27" s="10"/>
-      <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
-      <c r="AI27" s="13"/>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AB27" s="13"/>
+      <c r="AJ27" s="13"/>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="10"/>
-      <c r="W28" s="13"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
-      <c r="AI28" s="13"/>
-    </row>
-    <row r="29" spans="1:35">
+      <c r="AB28" s="13"/>
+      <c r="AJ28" s="13"/>
+    </row>
+    <row r="29" spans="1:36">
       <c r="A29" s="10"/>
-      <c r="W29" s="13"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
-      <c r="AI29" s="13"/>
-    </row>
-    <row r="30" spans="1:35">
+      <c r="AB29" s="13"/>
+      <c r="AJ29" s="13"/>
+    </row>
+    <row r="30" spans="1:36">
       <c r="A30" s="10"/>
-      <c r="W30" s="13"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
-      <c r="AI30" s="13"/>
-    </row>
-    <row r="31" spans="1:35">
+      <c r="AB30" s="13"/>
+      <c r="AJ30" s="13"/>
+    </row>
+    <row r="31" spans="1:36">
       <c r="A31" s="10"/>
-      <c r="W31" s="13"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
-      <c r="AI31" s="13"/>
-    </row>
-    <row r="32" spans="1:35">
+      <c r="AB31" s="13"/>
+      <c r="AJ31" s="13"/>
+    </row>
+    <row r="32" spans="1:36">
       <c r="A32" s="10"/>
-      <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
-      <c r="AI32" s="13"/>
-    </row>
-    <row r="33" spans="1:35">
+      <c r="AB32" s="13"/>
+      <c r="AJ32" s="13"/>
+    </row>
+    <row r="33" spans="1:36">
       <c r="A33" s="10"/>
-      <c r="W33" s="13"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
-      <c r="AI33" s="13"/>
-    </row>
-    <row r="34" spans="1:35">
+      <c r="AB33" s="13"/>
+      <c r="AJ33" s="13"/>
+    </row>
+    <row r="34" spans="1:36">
       <c r="A34" s="10"/>
-      <c r="W34" s="13"/>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
-      <c r="AI34" s="13"/>
-    </row>
-    <row r="35" spans="1:35">
+      <c r="AB34" s="13"/>
+      <c r="AJ34" s="13"/>
+    </row>
+    <row r="35" spans="1:36">
       <c r="A35" s="10"/>
-      <c r="W35" s="13"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
-      <c r="AI35" s="13"/>
-    </row>
-    <row r="36" spans="1:35">
+      <c r="AB35" s="13"/>
+      <c r="AJ35" s="13"/>
+    </row>
+    <row r="36" spans="1:36">
       <c r="A36" s="10"/>
-      <c r="W36" s="13"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
-      <c r="AI36" s="13"/>
-    </row>
-    <row r="37" spans="1:35">
+      <c r="AB36" s="13"/>
+      <c r="AJ36" s="13"/>
+    </row>
+    <row r="37" spans="1:36">
       <c r="A37" s="10"/>
-      <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
-      <c r="AI37" s="13"/>
-    </row>
-    <row r="38" spans="1:35">
+      <c r="AB37" s="13"/>
+      <c r="AJ37" s="13"/>
+    </row>
+    <row r="38" spans="1:36">
       <c r="A38" s="10"/>
-      <c r="W38" s="13"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
-      <c r="AI38" s="13"/>
-    </row>
-    <row r="39" spans="1:35">
+      <c r="AB38" s="13"/>
+      <c r="AJ38" s="13"/>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39" s="10"/>
-      <c r="W39" s="13"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
-      <c r="AI39" s="13"/>
-    </row>
-    <row r="40" spans="1:35">
+      <c r="AB39" s="13"/>
+      <c r="AJ39" s="13"/>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40" s="10"/>
-      <c r="W40" s="13"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
-      <c r="AI40" s="13"/>
-    </row>
-    <row r="41" spans="1:35">
+      <c r="AB40" s="13"/>
+      <c r="AJ40" s="13"/>
+    </row>
+    <row r="41" spans="1:36">
       <c r="A41" s="10"/>
-      <c r="W41" s="13"/>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
-      <c r="AI41" s="13"/>
-    </row>
-    <row r="42" spans="1:35">
+      <c r="AB41" s="13"/>
+      <c r="AJ41" s="13"/>
+    </row>
+    <row r="42" spans="1:36">
       <c r="A42" s="10"/>
-      <c r="W42" s="13"/>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
-      <c r="AI42" s="13"/>
-    </row>
-    <row r="43" spans="1:35">
+      <c r="AB42" s="13"/>
+      <c r="AJ42" s="13"/>
+    </row>
+    <row r="43" spans="1:36">
       <c r="A43" s="10"/>
-      <c r="W43" s="13"/>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
-      <c r="AI43" s="13"/>
-    </row>
-    <row r="44" spans="1:35">
+      <c r="AB43" s="13"/>
+      <c r="AJ43" s="13"/>
+    </row>
+    <row r="44" spans="1:36">
       <c r="A44" s="10"/>
-      <c r="W44" s="13"/>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
-      <c r="AI44" s="13"/>
-    </row>
-    <row r="45" spans="1:35">
+      <c r="AB44" s="13"/>
+      <c r="AJ44" s="13"/>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45" s="10"/>
-      <c r="W45" s="13"/>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
-      <c r="AI45" s="13"/>
-    </row>
-    <row r="46" spans="1:35">
+      <c r="AB45" s="13"/>
+      <c r="AJ45" s="13"/>
+    </row>
+    <row r="46" spans="1:36">
       <c r="A46" s="10"/>
-      <c r="W46" s="13"/>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
-      <c r="AI46" s="13"/>
-    </row>
-    <row r="47" spans="1:35">
+      <c r="AB46" s="13"/>
+      <c r="AJ46" s="13"/>
+    </row>
+    <row r="47" spans="1:36">
       <c r="A47" s="10"/>
-      <c r="W47" s="13"/>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
-      <c r="AI47" s="13"/>
-    </row>
-    <row r="48" spans="1:35">
+      <c r="AB47" s="13"/>
+      <c r="AJ47" s="13"/>
+    </row>
+    <row r="48" spans="1:36">
       <c r="A48" s="10"/>
-      <c r="W48" s="13"/>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
-      <c r="AI48" s="13"/>
-    </row>
-    <row r="49" spans="1:35">
+      <c r="AB48" s="13"/>
+      <c r="AJ48" s="13"/>
+    </row>
+    <row r="49" spans="1:36">
       <c r="A49" s="10"/>
-      <c r="W49" s="13"/>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
-      <c r="AI49" s="13"/>
-    </row>
-    <row r="50" spans="1:35">
+      <c r="AB49" s="13"/>
+      <c r="AJ49" s="13"/>
+    </row>
+    <row r="50" spans="1:36">
       <c r="A50" s="10"/>
-      <c r="W50" s="13"/>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
-      <c r="AI50" s="13"/>
-    </row>
-    <row r="51" spans="1:35">
+      <c r="AB50" s="13"/>
+      <c r="AJ50" s="13"/>
+    </row>
+    <row r="51" spans="1:36">
       <c r="A51" s="10"/>
-      <c r="W51" s="13"/>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
-      <c r="AI51" s="13"/>
-    </row>
-    <row r="52" spans="1:35">
+      <c r="AB51" s="13"/>
+      <c r="AJ51" s="13"/>
+    </row>
+    <row r="52" spans="1:36">
       <c r="A52" s="10"/>
-      <c r="W52" s="13"/>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
-      <c r="AI52" s="13"/>
-    </row>
-    <row r="53" spans="1:35">
+      <c r="AB52" s="13"/>
+      <c r="AJ52" s="13"/>
+    </row>
+    <row r="53" spans="1:36">
       <c r="A53" s="10"/>
-      <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
-      <c r="AI53" s="13"/>
-    </row>
-    <row r="54" spans="1:35">
+      <c r="AB53" s="13"/>
+      <c r="AJ53" s="13"/>
+    </row>
+    <row r="54" spans="1:36">
       <c r="A54" s="10"/>
-      <c r="W54" s="13"/>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
-      <c r="AI54" s="13"/>
-    </row>
-    <row r="55" spans="1:35">
+      <c r="AB54" s="13"/>
+      <c r="AJ54" s="13"/>
+    </row>
+    <row r="55" spans="1:36">
       <c r="A55" s="10"/>
-      <c r="W55" s="13"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
-      <c r="AI55" s="13"/>
-    </row>
-    <row r="56" spans="1:35">
+      <c r="AB55" s="13"/>
+      <c r="AJ55" s="13"/>
+    </row>
+    <row r="56" spans="1:36">
       <c r="A56" s="10"/>
-      <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
-      <c r="AI56" s="13"/>
-    </row>
-    <row r="57" spans="1:35">
+      <c r="AB56" s="13"/>
+      <c r="AJ56" s="13"/>
+    </row>
+    <row r="57" spans="1:36">
       <c r="A57" s="10"/>
-      <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
-      <c r="AI57" s="13"/>
-    </row>
-    <row r="58" spans="1:35">
+      <c r="AB57" s="13"/>
+      <c r="AJ57" s="13"/>
+    </row>
+    <row r="58" spans="1:36">
       <c r="A58" s="10"/>
-      <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
-      <c r="AI58" s="13"/>
-    </row>
-    <row r="59" spans="1:35">
+      <c r="AB58" s="13"/>
+      <c r="AJ58" s="13"/>
+    </row>
+    <row r="59" spans="1:36">
       <c r="A59" s="10"/>
-      <c r="W59" s="13"/>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
-      <c r="AI59" s="13"/>
-    </row>
-    <row r="60" spans="1:35">
+      <c r="AB59" s="13"/>
+      <c r="AJ59" s="13"/>
+    </row>
+    <row r="60" spans="1:36">
       <c r="A60" s="10"/>
-      <c r="W60" s="13"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
       <c r="AA60" s="13"/>
-      <c r="AI60" s="13"/>
-    </row>
-    <row r="61" spans="1:35">
+      <c r="AB60" s="13"/>
+      <c r="AJ60" s="13"/>
+    </row>
+    <row r="61" spans="1:36">
       <c r="A61" s="10"/>
-      <c r="W61" s="13"/>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
       <c r="AA61" s="13"/>
-      <c r="AI61" s="13"/>
-    </row>
-    <row r="62" spans="1:35">
+      <c r="AB61" s="13"/>
+      <c r="AJ61" s="13"/>
+    </row>
+    <row r="62" spans="1:36">
       <c r="A62" s="10"/>
-      <c r="W62" s="13"/>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
       <c r="AA62" s="13"/>
-      <c r="AI62" s="13"/>
+      <c r="AB62" s="13"/>
+      <c r="AJ62" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -5125,21 +5199,21 @@
         <v>12</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" s="8">
         <v>0.8</v>
@@ -5191,33 +5265,33 @@
         <v>4</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.4">
       <c r="A2" s="31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B2" s="38">
         <v>38804</v>
@@ -5252,7 +5326,7 @@
     </row>
     <row r="3" spans="1:11" ht="14.4">
       <c r="A3" s="31" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" s="38">
         <v>39169</v>
@@ -5287,7 +5361,7 @@
     </row>
     <row r="4" spans="1:11" ht="14.4">
       <c r="A4" s="31" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B4" s="38">
         <v>39535</v>
@@ -5322,7 +5396,7 @@
     </row>
     <row r="5" spans="1:11" ht="14.4">
       <c r="A5" s="31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B5" s="38">
         <v>39900</v>
@@ -5357,7 +5431,7 @@
     </row>
     <row r="6" spans="1:11" ht="14.4">
       <c r="A6" s="31" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B6" s="38">
         <v>40265</v>
@@ -5392,7 +5466,7 @@
     </row>
     <row r="7" spans="1:11" ht="14.4">
       <c r="A7" s="31" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B7" s="38">
         <v>40630</v>
@@ -5427,7 +5501,7 @@
     </row>
     <row r="8" spans="1:11" ht="14.4">
       <c r="A8" s="31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B8" s="38">
         <v>40996</v>
@@ -5462,7 +5536,7 @@
     </row>
     <row r="9" spans="1:11" ht="14.4">
       <c r="A9" s="31" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B9" s="38">
         <v>41361</v>
@@ -5511,175 +5585,171 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="8" customWidth="1"/>
-    <col min="7" max="9" width="16.5546875" style="8" customWidth="1"/>
-    <col min="10" max="12" width="9" style="8"/>
-    <col min="13" max="14" width="8.109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="9" style="8"/>
-    <col min="16" max="16" width="18" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9" style="8"/>
-    <col min="18" max="23" width="9.109375" style="57"/>
-    <col min="24" max="16384" width="9" style="8"/>
+    <col min="2" max="2" width="14.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="8" customWidth="1"/>
+    <col min="6" max="8" width="16.5546875" style="8" customWidth="1"/>
+    <col min="9" max="11" width="9" style="8"/>
+    <col min="12" max="13" width="8.109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="9" style="8"/>
+    <col min="15" max="15" width="18" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9" style="8"/>
+    <col min="17" max="22" width="9.109375" style="57"/>
+    <col min="23" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:30">
       <c r="A1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="K1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="P1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="V1" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="T1" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="V1" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="W1" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="Y1" s="9" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AC1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AD1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="31" t="s">
-        <v>129</v>
-      </c>
       <c r="B2" s="8">
-        <v>2200</v>
-      </c>
-      <c r="C2" s="8">
         <v>16</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
+        <v>0.53</v>
+      </c>
+      <c r="E2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="33">
+        <v>3</v>
+      </c>
+      <c r="H2" s="33">
+        <v>110</v>
+      </c>
+      <c r="I2">
+        <v>166.7</v>
+      </c>
+      <c r="J2">
+        <v>31.3</v>
+      </c>
+      <c r="K2">
+        <v>0.73</v>
+      </c>
+      <c r="L2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M2">
+        <v>0.04</v>
+      </c>
+      <c r="N2" s="23">
+        <v>1.059E-4</v>
+      </c>
+      <c r="O2" s="23">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2" s="57">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0.53</v>
-      </c>
-      <c r="F2">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="33">
-        <v>3</v>
-      </c>
-      <c r="I2" s="33">
-        <v>110</v>
-      </c>
-      <c r="J2">
-        <v>166.7</v>
-      </c>
-      <c r="K2">
-        <v>31.3</v>
-      </c>
-      <c r="L2">
-        <v>0.73</v>
-      </c>
-      <c r="M2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N2">
-        <v>0.04</v>
-      </c>
-      <c r="O2" s="23">
-        <v>1.059E-4</v>
-      </c>
-      <c r="P2" s="23">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="Q2"/>
       <c r="R2" s="57">
         <v>1</v>
       </c>
@@ -5687,92 +5757,89 @@
         <v>1</v>
       </c>
       <c r="T2" s="57">
+        <v>2.4</v>
+      </c>
+      <c r="U2" s="57">
+        <v>2.9</v>
+      </c>
+      <c r="V2" s="57">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="U2" s="57">
-        <v>2.4</v>
-      </c>
-      <c r="V2" s="57">
-        <v>2.9</v>
-      </c>
-      <c r="W2" s="57">
-        <v>0</v>
-      </c>
       <c r="X2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Y2">
+        <v>35</v>
+      </c>
+      <c r="Z2">
+        <v>0.5</v>
+      </c>
+      <c r="AA2">
+        <v>0.01</v>
+      </c>
+      <c r="AB2">
+        <v>17.2</v>
+      </c>
+      <c r="AC2">
+        <v>0.75</v>
+      </c>
+      <c r="AD2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="8">
+        <v>22</v>
+      </c>
+      <c r="C3" s="33">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="Z2">
-        <v>35</v>
-      </c>
-      <c r="AA2">
-        <v>0.5</v>
-      </c>
-      <c r="AB2">
-        <v>0.01</v>
-      </c>
-      <c r="AC2">
-        <v>17.2</v>
-      </c>
-      <c r="AD2">
-        <v>0.75</v>
-      </c>
-      <c r="AE2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2200</v>
-      </c>
-      <c r="C3" s="8">
-        <v>22</v>
-      </c>
       <c r="D3" s="33">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="E3" s="33">
-        <v>0.53</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="F3" s="33">
-        <v>0.97799999999999998</v>
+        <v>3</v>
       </c>
       <c r="G3" s="33">
         <v>3</v>
       </c>
       <c r="H3" s="33">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="I3" s="33">
-        <v>110</v>
+        <v>166.7</v>
       </c>
       <c r="J3" s="33">
-        <v>166.7</v>
+        <v>31.3</v>
       </c>
       <c r="K3" s="33">
-        <v>31.3</v>
+        <v>0.73</v>
       </c>
       <c r="L3" s="33">
-        <v>0.73</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M3" s="33">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N3" s="33">
         <v>0.04</v>
       </c>
+      <c r="N3" s="23">
+        <v>1.059E-4</v>
+      </c>
       <c r="O3" s="23">
-        <v>1.059E-4</v>
-      </c>
-      <c r="P3" s="23">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="57">
+        <v>1</v>
+      </c>
       <c r="R3" s="57">
         <v>1</v>
       </c>
@@ -5780,39 +5847,36 @@
         <v>1</v>
       </c>
       <c r="T3" s="57">
+        <v>2.4</v>
+      </c>
+      <c r="U3" s="57">
+        <v>2.9</v>
+      </c>
+      <c r="V3" s="57">
+        <v>0</v>
+      </c>
+      <c r="W3" s="33">
         <v>1</v>
       </c>
-      <c r="U3" s="57">
-        <v>2.4</v>
-      </c>
-      <c r="V3" s="57">
-        <v>2.9</v>
-      </c>
-      <c r="W3" s="57">
-        <v>0</v>
-      </c>
       <c r="X3" s="33">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="Y3" s="33">
-        <v>1.7000000000000001E-2</v>
+        <v>35</v>
       </c>
       <c r="Z3" s="33">
-        <v>35</v>
+        <v>0.5</v>
       </c>
       <c r="AA3" s="33">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="AB3" s="33">
-        <v>0.01</v>
+        <v>17.2</v>
       </c>
       <c r="AC3" s="33">
-        <v>17.2</v>
+        <v>0.75</v>
       </c>
       <c r="AD3" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="AE3" s="33">
         <v>0.03</v>
       </c>
     </row>
@@ -5840,44 +5904,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="42" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="45" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="45" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5928,7 +5992,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5942,33 +6006,33 @@
         <v>12</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4">
       <c r="A2" s="27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -6131,78 +6195,78 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="48" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.4">
       <c r="A2" s="45" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C2" s="8">
         <v>42.017000000000003</v>
@@ -6267,10 +6331,10 @@
     </row>
     <row r="3" spans="1:22" ht="14.4">
       <c r="A3" s="45" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C3" s="8">
         <v>42.017000000000003</v>
@@ -6335,10 +6399,10 @@
     </row>
     <row r="4" spans="1:22" ht="14.4">
       <c r="A4" s="31" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C4" s="8">
         <v>42.017000000000003</v>
@@ -6403,10 +6467,10 @@
     </row>
     <row r="5" spans="1:22" ht="14.4">
       <c r="A5" s="31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C5" s="8">
         <v>42.017000000000003</v>
@@ -6471,10 +6535,10 @@
     </row>
     <row r="6" spans="1:22" ht="14.4">
       <c r="A6" s="31" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C6" s="8">
         <v>42.017000000000003</v>
@@ -6539,10 +6603,10 @@
     </row>
     <row r="7" spans="1:22" ht="14.4">
       <c r="A7" s="31" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C7" s="8">
         <v>42.017000000000003</v>
@@ -6607,10 +6671,10 @@
     </row>
     <row r="8" spans="1:22" ht="14.4">
       <c r="A8" s="31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C8" s="8">
         <v>42.017000000000003</v>
@@ -6675,10 +6739,10 @@
     </row>
     <row r="9" spans="1:22" ht="14.4">
       <c r="A9" s="31" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C9" s="8">
         <v>42.017000000000003</v>
@@ -6742,7 +6806,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -6755,7 +6819,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6778,15 +6842,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4">
       <c r="A2" s="31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B2" s="37">
         <v>38808</v>
@@ -6803,7 +6867,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.4">
       <c r="A3" s="31" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" s="37">
         <v>39173</v>
@@ -6820,7 +6884,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.4">
       <c r="A4" s="31" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B4" s="37">
         <v>39538</v>
@@ -6837,7 +6901,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.4">
       <c r="A5" s="31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B5" s="37">
         <v>39904</v>
@@ -6854,7 +6918,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.4">
       <c r="A6" s="31" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B6" s="37">
         <v>40269</v>
@@ -6871,7 +6935,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.4">
       <c r="A7" s="31" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B7" s="37">
         <v>40634</v>
@@ -6888,7 +6952,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.4">
       <c r="A8" s="31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B8" s="37">
         <v>40999</v>
@@ -6905,7 +6969,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.4">
       <c r="A9" s="31" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B9" s="37">
         <v>41365</v>
@@ -6952,30 +7016,30 @@
         <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4">
       <c r="A2" s="41" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>1.6</v>
@@ -7005,7 +7069,7 @@
     </row>
     <row r="3" spans="1:10" ht="14.4">
       <c r="A3" s="41" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>1.6</v>
@@ -7121,12 +7185,12 @@
         <v>13</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.4">
       <c r="A2" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B2" s="36">
         <v>0</v>
@@ -7134,7 +7198,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.4">
       <c r="A3" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B3" s="33">
         <v>0.5</v>
@@ -7142,7 +7206,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.4">
       <c r="A4" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B4" s="33">
         <v>1</v>
@@ -7150,7 +7214,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.4">
       <c r="A5" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B5" s="33">
         <v>2</v>
@@ -7158,7 +7222,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.4">
       <c r="A6" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B6" s="33">
         <v>3</v>
@@ -7166,7 +7230,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.4">
       <c r="A7" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B7" s="33">
         <v>4.5</v>
@@ -7174,7 +7238,7 @@
     </row>
     <row r="8" spans="1:2" ht="14.4">
       <c r="A8" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
@@ -7182,7 +7246,7 @@
     </row>
     <row r="9" spans="1:2" ht="14.4">
       <c r="A9" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B9" s="33">
         <v>8.5</v>
@@ -7190,7 +7254,7 @@
     </row>
     <row r="10" spans="1:2" ht="14.4">
       <c r="A10" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B10" s="33">
         <v>11</v>
@@ -7198,7 +7262,7 @@
     </row>
     <row r="11" spans="1:2" ht="14.4">
       <c r="A11" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B11" s="33">
         <v>14</v>
@@ -7206,7 +7270,7 @@
     </row>
     <row r="12" spans="1:2" ht="14.4">
       <c r="A12" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B12" s="33">
         <v>19</v>
@@ -7214,7 +7278,7 @@
     </row>
     <row r="13" spans="1:2" ht="14.4">
       <c r="A13" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B13" s="33">
         <v>23</v>
@@ -7222,7 +7286,7 @@
     </row>
     <row r="14" spans="1:2" ht="14.4">
       <c r="A14" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B14" s="33">
         <v>27</v>
@@ -7230,7 +7294,7 @@
     </row>
     <row r="15" spans="1:2" ht="14.4">
       <c r="A15" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B15" s="33">
         <v>33</v>
@@ -7238,7 +7302,7 @@
     </row>
     <row r="16" spans="1:2" ht="14.4">
       <c r="A16" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B16" s="33">
         <v>38</v>
@@ -7246,7 +7310,7 @@
     </row>
     <row r="17" spans="1:2" ht="14.4">
       <c r="A17" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B17" s="36">
         <v>0</v>
@@ -7254,7 +7318,7 @@
     </row>
     <row r="18" spans="1:2" ht="14.4">
       <c r="A18" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B18" s="33">
         <v>0.5</v>
@@ -7262,7 +7326,7 @@
     </row>
     <row r="19" spans="1:2" ht="14.4">
       <c r="A19" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B19" s="33">
         <v>1</v>
@@ -7270,7 +7334,7 @@
     </row>
     <row r="20" spans="1:2" ht="14.4">
       <c r="A20" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B20" s="33">
         <v>2</v>
@@ -7278,7 +7342,7 @@
     </row>
     <row r="21" spans="1:2" ht="14.4">
       <c r="A21" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B21" s="33">
         <v>3</v>
@@ -7286,7 +7350,7 @@
     </row>
     <row r="22" spans="1:2" ht="14.4">
       <c r="A22" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B22" s="33">
         <v>4.5</v>
@@ -7294,7 +7358,7 @@
     </row>
     <row r="23" spans="1:2" ht="14.4">
       <c r="A23" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B23" s="33">
         <v>6</v>
@@ -7302,7 +7366,7 @@
     </row>
     <row r="24" spans="1:2" ht="14.4">
       <c r="A24" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B24" s="33">
         <v>8.5</v>
@@ -7310,7 +7374,7 @@
     </row>
     <row r="25" spans="1:2" ht="14.4">
       <c r="A25" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B25" s="33">
         <v>11</v>
@@ -7318,7 +7382,7 @@
     </row>
     <row r="26" spans="1:2" ht="14.4">
       <c r="A26" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B26" s="33">
         <v>14</v>
@@ -7326,7 +7390,7 @@
     </row>
     <row r="27" spans="1:2" ht="14.4">
       <c r="A27" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B27" s="33">
         <v>19</v>
@@ -7334,7 +7398,7 @@
     </row>
     <row r="28" spans="1:2" ht="14.4">
       <c r="A28" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B28" s="33">
         <v>23</v>
@@ -7342,7 +7406,7 @@
     </row>
     <row r="29" spans="1:2" ht="14.4">
       <c r="A29" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B29" s="33">
         <v>27</v>
@@ -7350,7 +7414,7 @@
     </row>
     <row r="30" spans="1:2" ht="14.4">
       <c r="A30" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B30" s="33">
         <v>33</v>
@@ -7358,7 +7422,7 @@
     </row>
     <row r="31" spans="1:2" ht="14.4">
       <c r="A31" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B31" s="33">
         <v>38</v>
@@ -7706,8 +7770,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -7757,33 +7821,33 @@
         <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.4">
       <c r="A2" s="31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1">
         <v>86500</v>
@@ -7831,12 +7895,12 @@
         <v>1</v>
       </c>
       <c r="Q2" s="24">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.4">
       <c r="A3" s="31" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1">
         <v>86500</v>
@@ -7883,13 +7947,13 @@
       <c r="P3" s="24">
         <v>1</v>
       </c>
-      <c r="Q3" s="24">
-        <v>-1</v>
+      <c r="Q3" s="35">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.4">
       <c r="A4" s="31" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1">
         <v>86500</v>
@@ -7936,13 +8000,13 @@
       <c r="P4" s="24">
         <v>1</v>
       </c>
-      <c r="Q4" s="24">
-        <v>-1</v>
+      <c r="Q4" s="35">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4">
       <c r="A5" s="31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1">
         <v>86500</v>
@@ -7989,13 +8053,13 @@
       <c r="P5" s="24">
         <v>1</v>
       </c>
-      <c r="Q5" s="24">
-        <v>-1</v>
+      <c r="Q5" s="35">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.4">
       <c r="A6" s="31" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1">
         <v>86500</v>
@@ -8042,13 +8106,13 @@
       <c r="P6" s="24">
         <v>1</v>
       </c>
-      <c r="Q6" s="24">
-        <v>-1</v>
+      <c r="Q6" s="35">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.4">
       <c r="A7" s="31" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1">
         <v>86500</v>
@@ -8095,13 +8159,13 @@
       <c r="P7" s="24">
         <v>1</v>
       </c>
-      <c r="Q7" s="24">
-        <v>-1</v>
+      <c r="Q7" s="35">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.4">
       <c r="A8" s="31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1">
         <v>86500</v>
@@ -8148,13 +8212,13 @@
       <c r="P8" s="24">
         <v>1</v>
       </c>
-      <c r="Q8" s="24">
-        <v>-1</v>
+      <c r="Q8" s="35">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.4">
       <c r="A9" s="31" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1">
         <v>86500</v>
@@ -8201,12 +8265,12 @@
       <c r="P9" s="24">
         <v>1</v>
       </c>
-      <c r="Q9" s="24">
-        <v>-1</v>
+      <c r="Q9" s="35">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -8703,16 +8767,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Example input/IOWA inputs-HPhase4 (V2).xlsx
+++ b/Example input/IOWA inputs-HPhase4 (V2).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598EDEE5-BE83-4FC7-B5C8-685B25F4073A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D52FF8-8CFE-423E-BF77-C95385FCBDB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3024" yWindow="3288" windowWidth="17280" windowHeight="9072" tabRatio="824" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="3555" windowWidth="21600" windowHeight="11415" tabRatio="824" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -13,16 +13,15 @@
     <sheet name="Climate" sheetId="8" r:id="rId3"/>
     <sheet name="Fertilization" sheetId="1" r:id="rId4"/>
     <sheet name="GridRatio" sheetId="11" r:id="rId5"/>
-    <sheet name="GridX" sheetId="12" r:id="rId6"/>
-    <sheet name="Init" sheetId="2" r:id="rId7"/>
-    <sheet name="Irrig" sheetId="3" r:id="rId8"/>
-    <sheet name="Drip" sheetId="16" r:id="rId9"/>
-    <sheet name="DripNodes" sheetId="17" r:id="rId10"/>
-    <sheet name="Soil" sheetId="6" r:id="rId11"/>
-    <sheet name="Solute" sheetId="15" r:id="rId12"/>
-    <sheet name="Time" sheetId="4" r:id="rId13"/>
-    <sheet name="Variety" sheetId="10" r:id="rId14"/>
-    <sheet name="Weather" sheetId="7" r:id="rId15"/>
+    <sheet name="Init" sheetId="2" r:id="rId6"/>
+    <sheet name="Irrig" sheetId="3" r:id="rId7"/>
+    <sheet name="Drip" sheetId="16" r:id="rId8"/>
+    <sheet name="DripNodes" sheetId="17" r:id="rId9"/>
+    <sheet name="Soil" sheetId="6" r:id="rId10"/>
+    <sheet name="Solute" sheetId="15" r:id="rId11"/>
+    <sheet name="Time" sheetId="4" r:id="rId12"/>
+    <sheet name="Variety" sheetId="10" r:id="rId13"/>
+    <sheet name="Weather" sheetId="7" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -32,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -75,40 +76,6 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-distance in cm from plant. Total distance is 1/2 row spacing. The x dimesion of the grid is developed from this</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -181,7 +148,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1B58B7BD-B9FF-4CCC-B621-6D574DE5BD18}</author>
@@ -767,7 +734,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="195">
   <si>
     <t>Date</t>
   </si>
@@ -844,9 +811,6 @@
     <t>ClimateFile</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -979,9 +943,6 @@
     <t>IR2</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>PlantingDepth</t>
   </si>
   <si>
@@ -1225,12 +1186,6 @@
     <t>TH1500</t>
   </si>
   <si>
-    <t>IowaH</t>
-  </si>
-  <si>
-    <t>IowaD</t>
-  </si>
-  <si>
     <t>WeatherFileName</t>
   </si>
   <si>
@@ -1243,12 +1198,6 @@
     <t>GH9014_m.var</t>
   </si>
   <si>
-    <t>WeatherH</t>
-  </si>
-  <si>
-    <t>WeatherD</t>
-  </si>
-  <si>
     <t>StayGreen</t>
   </si>
   <si>
@@ -1361,6 +1310,15 @@
   </si>
   <si>
     <t>HNew</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>InitRtMass</t>
+  </si>
+  <si>
+    <t>agmipET.WeatherH</t>
   </si>
 </sst>
 </file>
@@ -1371,19 +1329,13 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1616,80 +1568,79 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1697,22 +1648,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1727,7 +1672,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1781,10 +1726,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2117,10 +2058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2128,451 +2069,400 @@
     <col min="1" max="2" width="26.5546875" style="8" customWidth="1"/>
     <col min="3" max="4" width="17.109375" style="8" customWidth="1"/>
     <col min="5" max="7" width="19.109375" style="8" customWidth="1"/>
-    <col min="8" max="9" width="25" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16" style="8" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12" style="30" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="8"/>
+    <col min="8" max="8" width="25" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16" style="8" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12" style="29" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>162</v>
+      <c r="B1" s="45" t="s">
+        <v>156</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>186</v>
+      <c r="D1" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>154</v>
+      <c r="G1" s="46" t="s">
+        <v>150</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="29" t="s">
+      <c r="H3" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="26" t="s">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="48" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="41" t="s">
+      <c r="G4" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="50" t="s">
+      <c r="J4" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="47" t="s">
+      <c r="C5" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="26" t="s">
+      <c r="D5" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="48" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="41" t="s">
+      <c r="G5" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="50" t="s">
+      <c r="J5" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="C6" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="47" t="s">
+      <c r="K6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K3" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="26" t="s">
+      <c r="D7" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="G7" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="47" t="s">
+      <c r="C8" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="N4" s="26" t="s">
+      <c r="D8" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="48" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="51" t="s">
+      <c r="G9" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="41" t="s">
+      <c r="K9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
+      <c r="M9" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A301C4E-46EB-4704-9EBC-97EA806E0DBA}">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2580,24 +2470,24 @@
   <cols>
     <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="45" customWidth="1"/>
     <col min="4" max="5" width="14.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="8" customWidth="1"/>
     <col min="8" max="14" width="14.6640625" style="8" customWidth="1"/>
-    <col min="15" max="23" width="13" style="33" customWidth="1"/>
+    <col min="15" max="23" width="13" style="32" customWidth="1"/>
     <col min="24" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="48" t="s">
-        <v>195</v>
+      <c r="A1" s="45" t="s">
+        <v>189</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>18</v>
@@ -2609,113 +2499,113 @@
         <v>20</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>194</v>
+      <c r="H1" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="V1" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="W1" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="R1" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>180</v>
-      </c>
       <c r="X1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="2" spans="1:36">
-      <c r="A2" s="45" t="s">
-        <v>120</v>
+      <c r="A2" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B2" s="8">
         <v>23</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="33">
+      <c r="C2" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="32">
         <v>3.7840000000000006E-2</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="32">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="32">
         <v>5.0999999999999996</v>
       </c>
       <c r="G2" s="8">
@@ -2724,49 +2614,49 @@
       <c r="H2" s="8">
         <v>18</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="32">
         <v>47.6</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="32">
         <v>31.8</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="32">
         <v>20.6</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="32">
         <v>1.51</v>
       </c>
-      <c r="M2" s="46">
+      <c r="M2" s="44">
         <v>0.30502000000000001</v>
       </c>
-      <c r="N2" s="46">
+      <c r="N2" s="44">
         <v>0.15553</v>
       </c>
-      <c r="O2" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P2" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q2" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R2" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S2" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T2" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U2" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V2" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W2" s="33">
+      <c r="O2" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W2" s="32">
         <v>-1</v>
       </c>
       <c r="X2" s="23">
@@ -2810,22 +2700,22 @@
       </c>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="45" t="s">
-        <v>120</v>
+      <c r="A3" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B3" s="8">
         <v>33</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="33">
+      <c r="C3" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="32">
         <v>2.4080000000000001E-2</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>4.5999999999999996</v>
       </c>
       <c r="G3" s="8">
@@ -2834,49 +2724,49 @@
       <c r="H3" s="8">
         <v>18</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="32">
         <v>46.3</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="32">
         <v>29.7</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="32">
         <v>24</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="32">
         <v>1.42</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="44">
         <v>0.28967999999999994</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="44">
         <v>0.16045999999999999</v>
       </c>
-      <c r="O3" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P3" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q3" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R3" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S3" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T3" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V3" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W3" s="33">
+      <c r="O3" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V3" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="32">
         <v>-1</v>
       </c>
       <c r="X3" s="23">
@@ -2920,22 +2810,22 @@
       </c>
     </row>
     <row r="4" spans="1:36">
-      <c r="A4" s="45" t="s">
-        <v>120</v>
+      <c r="A4" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B4" s="8">
         <v>48</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="33">
+      <c r="C4" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="32">
         <v>1.4964E-2</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>3.4</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>3.4</v>
       </c>
       <c r="G4" s="8">
@@ -2944,49 +2834,49 @@
       <c r="H4" s="8">
         <v>18</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <v>49.6</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <v>28.1</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="32">
         <v>22.3</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="32">
         <v>1.42</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="44">
         <v>0.28967999999999994</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="44">
         <v>0.15051999999999999</v>
       </c>
-      <c r="O4" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P4" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q4" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S4" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V4" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W4" s="33">
+      <c r="O4" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="32">
         <v>-1</v>
       </c>
       <c r="X4" s="23">
@@ -3030,22 +2920,22 @@
       </c>
     </row>
     <row r="5" spans="1:36">
-      <c r="A5" s="45" t="s">
-        <v>120</v>
+      <c r="A5" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B5" s="8">
         <v>70</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="33">
+      <c r="C5" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="32">
         <v>9.1160000000000008E-3</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>2.9</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>2.9</v>
       </c>
       <c r="G5" s="8">
@@ -3054,49 +2944,49 @@
       <c r="H5" s="8">
         <v>23</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <v>51.4</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="32">
         <v>28</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="32">
         <v>20.6</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="32">
         <v>1.43</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="44">
         <v>0.24881999999999999</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="44">
         <v>0.13727999999999999</v>
       </c>
-      <c r="O5" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P5" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q5" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R5" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T5" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U5" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V5" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W5" s="33">
+      <c r="O5" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V5" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="32">
         <v>-1</v>
       </c>
       <c r="X5" s="23">
@@ -3140,22 +3030,22 @@
       </c>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="45" t="s">
-        <v>120</v>
+      <c r="A6" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B6" s="8">
         <v>87</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="33">
+      <c r="C6" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="32">
         <v>6.5359999999999993E-3</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>1.3</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>1.3</v>
       </c>
       <c r="G6" s="8">
@@ -3164,49 +3054,49 @@
       <c r="H6" s="8">
         <v>23</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="32">
         <v>52.4</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="32">
         <v>29.4</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="32">
         <v>18.2</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="32">
         <v>1.42</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="44">
         <v>0.23430000000000001</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="44">
         <v>0.11785999999999999</v>
       </c>
-      <c r="O6" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P6" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q6" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R6" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S6" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T6" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U6" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V6" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W6" s="33">
+      <c r="O6" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="32">
         <v>-1</v>
       </c>
       <c r="X6" s="23">
@@ -3250,22 +3140,22 @@
       </c>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="45" t="s">
-        <v>120</v>
+      <c r="A7" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B7" s="8">
         <v>102</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="C7" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="32">
         <v>3.2679999999999996E-3</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>0.6</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>0.6</v>
       </c>
       <c r="G7" s="8">
@@ -3274,49 +3164,49 @@
       <c r="H7" s="8">
         <v>23</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="32">
         <v>50</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="32">
         <v>34.5</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="32">
         <v>15.5</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="32">
         <v>1.53</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="44">
         <v>0.24021000000000001</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="44">
         <v>0.12087000000000002</v>
       </c>
-      <c r="O7" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q7" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R7" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V7" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W7" s="33">
+      <c r="O7" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="32">
         <v>-1</v>
       </c>
       <c r="X7" s="23">
@@ -3334,25 +3224,25 @@
       <c r="AB7" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC7" s="33">
+      <c r="AC7" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD7" s="33">
+      <c r="AD7" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="32">
         <v>10</v>
       </c>
-      <c r="AF7" s="33">
+      <c r="AF7" s="32">
         <v>50</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AG7" s="32">
         <v>10</v>
       </c>
-      <c r="AH7" s="33">
+      <c r="AH7" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI7" s="33">
+      <c r="AI7" s="32">
         <v>8</v>
       </c>
       <c r="AJ7" s="23">
@@ -3360,22 +3250,22 @@
       </c>
     </row>
     <row r="8" spans="1:36">
-      <c r="A8" s="45" t="s">
-        <v>120</v>
+      <c r="A8" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B8" s="8">
         <v>120</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="33">
+      <c r="C8" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="32">
         <v>1.5479999999999999E-3</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>0.2</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>0.2</v>
       </c>
       <c r="G8" s="8">
@@ -3384,49 +3274,49 @@
       <c r="H8" s="8">
         <v>23</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="32">
         <v>50.9</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <v>34.799999999999997</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="32">
         <v>14.3</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="32">
         <v>1.76</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="44">
         <v>0.26576</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="44">
         <v>0.13904</v>
       </c>
-      <c r="O8" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q8" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U8" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V8" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W8" s="33">
+      <c r="O8" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="32">
         <v>-1</v>
       </c>
       <c r="X8" s="23">
@@ -3444,25 +3334,25 @@
       <c r="AB8" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC8" s="33">
+      <c r="AC8" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD8" s="33">
+      <c r="AD8" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE8" s="33">
+      <c r="AE8" s="32">
         <v>10</v>
       </c>
-      <c r="AF8" s="33">
+      <c r="AF8" s="32">
         <v>50</v>
       </c>
-      <c r="AG8" s="33">
+      <c r="AG8" s="32">
         <v>10</v>
       </c>
-      <c r="AH8" s="33">
+      <c r="AH8" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI8" s="33">
+      <c r="AI8" s="32">
         <v>8</v>
       </c>
       <c r="AJ8" s="23">
@@ -3470,22 +3360,22 @@
       </c>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="45" t="s">
-        <v>120</v>
+      <c r="A9" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B9" s="8">
         <v>151</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="33">
+      <c r="C9" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="32">
         <v>1.3760000000000001E-3</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>0.2</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>0.2</v>
       </c>
       <c r="G9" s="8">
@@ -3494,49 +3384,49 @@
       <c r="H9" s="8">
         <v>23</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <v>52.2</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="32">
         <v>33.4</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="32">
         <v>14.4</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="32">
         <v>1.82</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="44">
         <v>0.28210000000000002</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="44">
         <v>0.13650000000000001</v>
       </c>
-      <c r="O9" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R9" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V9" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W9" s="33">
+      <c r="O9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="32">
         <v>-1</v>
       </c>
       <c r="X9" s="23">
@@ -3554,25 +3444,25 @@
       <c r="AB9" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC9" s="33">
+      <c r="AC9" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD9" s="33">
+      <c r="AD9" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE9" s="33">
+      <c r="AE9" s="32">
         <v>10</v>
       </c>
-      <c r="AF9" s="33">
+      <c r="AF9" s="32">
         <v>50</v>
       </c>
-      <c r="AG9" s="33">
+      <c r="AG9" s="32">
         <v>10</v>
       </c>
-      <c r="AH9" s="33">
+      <c r="AH9" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI9" s="33">
+      <c r="AI9" s="32">
         <v>8</v>
       </c>
       <c r="AJ9" s="23">
@@ -3580,22 +3470,22 @@
       </c>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="45" t="s">
-        <v>120</v>
+      <c r="A10" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B10" s="8">
         <v>183</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="33">
+      <c r="C10" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="32">
         <v>1.204E-3</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>0.2</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>0.2</v>
       </c>
       <c r="G10" s="8">
@@ -3604,49 +3494,49 @@
       <c r="H10" s="8">
         <v>23</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="32">
         <v>52.7</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="32">
         <v>32.5</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="32">
         <v>14.8</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="32">
         <v>1.79</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="44">
         <v>0.28819</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="44">
         <v>0.13603999999999999</v>
       </c>
-      <c r="O10" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R10" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V10" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W10" s="33">
+      <c r="O10" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="32">
         <v>-1</v>
       </c>
       <c r="X10" s="23">
@@ -3664,25 +3554,25 @@
       <c r="AB10" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC10" s="33">
+      <c r="AC10" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD10" s="33">
+      <c r="AD10" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AE10" s="32">
         <v>10</v>
       </c>
-      <c r="AF10" s="33">
+      <c r="AF10" s="32">
         <v>50</v>
       </c>
-      <c r="AG10" s="33">
+      <c r="AG10" s="32">
         <v>10</v>
       </c>
-      <c r="AH10" s="33">
+      <c r="AH10" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI10" s="33">
+      <c r="AI10" s="32">
         <v>8</v>
       </c>
       <c r="AJ10" s="23">
@@ -3690,22 +3580,22 @@
       </c>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="45" t="s">
-        <v>120</v>
+      <c r="A11" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B11" s="8">
         <v>200</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="33">
+      <c r="C11" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="32">
         <v>8.6000000000000009E-4</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>0.2</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>0.2</v>
       </c>
       <c r="G11" s="8">
@@ -3714,49 +3604,49 @@
       <c r="H11" s="8">
         <v>23</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="32">
         <v>52.6</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="32">
         <v>33.200000000000003</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="32">
         <v>14.2</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <v>1.79</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="44">
         <v>0.28819</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="44">
         <v>0.13425000000000001</v>
       </c>
-      <c r="O11" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R11" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S11" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V11" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W11" s="33">
+      <c r="O11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="32">
         <v>-1</v>
       </c>
       <c r="X11" s="23">
@@ -3774,25 +3664,25 @@
       <c r="AB11" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC11" s="33">
+      <c r="AC11" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD11" s="33">
+      <c r="AD11" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE11" s="33">
+      <c r="AE11" s="32">
         <v>10</v>
       </c>
-      <c r="AF11" s="33">
+      <c r="AF11" s="32">
         <v>50</v>
       </c>
-      <c r="AG11" s="33">
+      <c r="AG11" s="32">
         <v>10</v>
       </c>
-      <c r="AH11" s="33">
+      <c r="AH11" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI11" s="33">
+      <c r="AI11" s="32">
         <v>8</v>
       </c>
       <c r="AJ11" s="23">
@@ -3800,22 +3690,22 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="15.6">
-      <c r="A12" s="45" t="s">
-        <v>119</v>
+      <c r="A12" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B12" s="8">
         <v>19</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>190</v>
+      <c r="C12" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="D12" s="8">
         <v>8.7719999999999979E-2</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="42">
         <v>2.2000000000000002</v>
       </c>
       <c r="G12" s="8">
@@ -3824,49 +3714,49 @@
       <c r="H12" s="8">
         <v>18</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="32">
         <v>41.3</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="32">
         <v>34.799999999999997</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="32">
         <v>23.9</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="32">
         <v>1.41</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="44">
         <v>0.38211000000000001</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="44">
         <v>0.20867999999999998</v>
       </c>
-      <c r="O12" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R12" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S12" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V12" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W12" s="33">
+      <c r="O12" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="32">
         <v>-1</v>
       </c>
       <c r="X12" s="23">
@@ -3884,25 +3774,25 @@
       <c r="AB12" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC12" s="33">
+      <c r="AC12" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD12" s="33">
+      <c r="AD12" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE12" s="33">
+      <c r="AE12" s="32">
         <v>10</v>
       </c>
-      <c r="AF12" s="33">
+      <c r="AF12" s="32">
         <v>50</v>
       </c>
-      <c r="AG12" s="33">
+      <c r="AG12" s="32">
         <v>10</v>
       </c>
-      <c r="AH12" s="33">
+      <c r="AH12" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI12" s="33">
+      <c r="AI12" s="32">
         <v>8</v>
       </c>
       <c r="AJ12" s="23">
@@ -3910,22 +3800,22 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="15.6">
-      <c r="A13" s="45" t="s">
-        <v>119</v>
+      <c r="A13" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B13" s="8">
         <v>28</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>190</v>
+      <c r="C13" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="D13" s="8">
         <v>7.9119999999999996E-2</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="42">
         <v>1.4</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="42">
         <v>1.4</v>
       </c>
       <c r="G13" s="8">
@@ -3934,49 +3824,49 @@
       <c r="H13" s="8">
         <v>18</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <v>35.9</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="32">
         <v>36.200000000000003</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="32">
         <v>27.9</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="32">
         <v>1.35</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="44">
         <v>0.37395</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="44">
         <v>0.25514999999999999</v>
       </c>
-      <c r="O13" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R13" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S13" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V13" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W13" s="33">
+      <c r="O13" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="32">
         <v>-1</v>
       </c>
       <c r="X13" s="23">
@@ -3994,25 +3884,25 @@
       <c r="AB13" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC13" s="33">
+      <c r="AC13" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD13" s="33">
+      <c r="AD13" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AE13" s="32">
         <v>10</v>
       </c>
-      <c r="AF13" s="33">
+      <c r="AF13" s="32">
         <v>50</v>
       </c>
-      <c r="AG13" s="33">
+      <c r="AG13" s="32">
         <v>10</v>
       </c>
-      <c r="AH13" s="33">
+      <c r="AH13" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI13" s="33">
+      <c r="AI13" s="32">
         <v>8</v>
       </c>
       <c r="AJ13" s="23">
@@ -4020,22 +3910,22 @@
       </c>
     </row>
     <row r="14" spans="1:36" ht="15.6">
-      <c r="A14" s="45" t="s">
-        <v>119</v>
+      <c r="A14" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B14" s="8">
         <v>44</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>190</v>
+      <c r="C14" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="D14" s="8">
         <v>5.8479999999999997E-2</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="42">
         <v>0.87</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="42">
         <v>0.87</v>
       </c>
       <c r="G14" s="8">
@@ -4044,49 +3934,49 @@
       <c r="H14" s="8">
         <v>18</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="32">
         <v>39.799999999999997</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="32">
         <v>31.2</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="32">
         <v>29</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="32">
         <v>1.45</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="44">
         <v>0.30740000000000001</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="44">
         <v>0.20155000000000001</v>
       </c>
-      <c r="O14" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R14" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S14" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T14" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U14" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V14" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W14" s="33">
+      <c r="O14" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W14" s="32">
         <v>-1</v>
       </c>
       <c r="X14" s="23">
@@ -4104,25 +3994,25 @@
       <c r="AB14" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC14" s="33">
+      <c r="AC14" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD14" s="33">
+      <c r="AD14" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE14" s="33">
+      <c r="AE14" s="32">
         <v>10</v>
       </c>
-      <c r="AF14" s="33">
+      <c r="AF14" s="32">
         <v>50</v>
       </c>
-      <c r="AG14" s="33">
+      <c r="AG14" s="32">
         <v>10</v>
       </c>
-      <c r="AH14" s="33">
+      <c r="AH14" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI14" s="33">
+      <c r="AI14" s="32">
         <v>8</v>
       </c>
       <c r="AJ14" s="23">
@@ -4130,22 +4020,22 @@
       </c>
     </row>
     <row r="15" spans="1:36" ht="15.6">
-      <c r="A15" s="45" t="s">
-        <v>119</v>
+      <c r="A15" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B15" s="8">
         <v>64</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>190</v>
+      <c r="C15" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="D15" s="8">
         <v>4.9879999999999994E-2</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="42">
         <v>0.53</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="42">
         <v>0.53</v>
       </c>
       <c r="G15" s="8">
@@ -4154,49 +4044,49 @@
       <c r="H15" s="8">
         <v>23</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="32">
         <v>38.299999999999997</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="32">
         <v>33.9</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="32">
         <v>27.8</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="32">
         <v>1.45</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="44">
         <v>0.27550000000000002</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="44">
         <v>0.17689999999999997</v>
       </c>
-      <c r="O15" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R15" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S15" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T15" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V15" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W15" s="33">
+      <c r="O15" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="32">
         <v>-1</v>
       </c>
       <c r="X15" s="23">
@@ -4214,25 +4104,25 @@
       <c r="AB15" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC15" s="33">
+      <c r="AC15" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD15" s="33">
+      <c r="AD15" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE15" s="33">
+      <c r="AE15" s="32">
         <v>10</v>
       </c>
-      <c r="AF15" s="33">
+      <c r="AF15" s="32">
         <v>50</v>
       </c>
-      <c r="AG15" s="33">
+      <c r="AG15" s="32">
         <v>10</v>
       </c>
-      <c r="AH15" s="33">
+      <c r="AH15" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI15" s="33">
+      <c r="AI15" s="32">
         <v>8</v>
       </c>
       <c r="AJ15" s="23">
@@ -4240,22 +4130,22 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="15.6">
-      <c r="A16" s="45" t="s">
-        <v>119</v>
+      <c r="A16" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B16" s="8">
         <v>85</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>190</v>
+      <c r="C16" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="D16" s="8">
         <v>2.2360000000000001E-2</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="42">
         <v>0.38</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="42">
         <v>0.38</v>
       </c>
       <c r="G16" s="8">
@@ -4264,49 +4154,49 @@
       <c r="H16" s="8">
         <v>23</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="32">
         <v>53.2</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="32">
         <v>27.7</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="32">
         <v>19.100000000000001</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="32">
         <v>1.56</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="44">
         <v>0.21371999999999999</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="44">
         <v>0.14351999999999998</v>
       </c>
-      <c r="O16" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R16" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S16" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T16" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U16" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V16" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W16" s="33">
+      <c r="O16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="32">
         <v>-1</v>
       </c>
       <c r="X16" s="23">
@@ -4324,25 +4214,25 @@
       <c r="AB16" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC16" s="33">
+      <c r="AC16" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD16" s="33">
+      <c r="AD16" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE16" s="33">
+      <c r="AE16" s="32">
         <v>10</v>
       </c>
-      <c r="AF16" s="33">
+      <c r="AF16" s="32">
         <v>50</v>
       </c>
-      <c r="AG16" s="33">
+      <c r="AG16" s="32">
         <v>10</v>
       </c>
-      <c r="AH16" s="33">
+      <c r="AH16" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI16" s="33">
+      <c r="AI16" s="32">
         <v>8</v>
       </c>
       <c r="AJ16" s="23">
@@ -4350,22 +4240,22 @@
       </c>
     </row>
     <row r="17" spans="1:36" ht="15.6">
-      <c r="A17" s="45" t="s">
-        <v>119</v>
+      <c r="A17" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B17" s="8">
         <v>103</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>190</v>
+      <c r="C17" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="D17" s="8">
         <v>1.0320000000000001E-2</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="42">
         <v>0.19</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="42">
         <v>0.19</v>
       </c>
       <c r="G17" s="8">
@@ -4374,49 +4264,49 @@
       <c r="H17" s="8">
         <v>23</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="32">
         <v>60.5</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="32">
         <v>24.8</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <v>14.7</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="32">
         <v>1.49</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="44">
         <v>0.25329999999999997</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="44">
         <v>0.11622</v>
       </c>
-      <c r="O17" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P17" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R17" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S17" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T17" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U17" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V17" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W17" s="33">
+      <c r="O17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="32">
         <v>-1</v>
       </c>
       <c r="X17" s="23">
@@ -4434,25 +4324,25 @@
       <c r="AB17" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC17" s="33">
+      <c r="AC17" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD17" s="33">
+      <c r="AD17" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE17" s="33">
+      <c r="AE17" s="32">
         <v>10</v>
       </c>
-      <c r="AF17" s="33">
+      <c r="AF17" s="32">
         <v>50</v>
       </c>
-      <c r="AG17" s="33">
+      <c r="AG17" s="32">
         <v>10</v>
       </c>
-      <c r="AH17" s="33">
+      <c r="AH17" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI17" s="33">
+      <c r="AI17" s="32">
         <v>8</v>
       </c>
       <c r="AJ17" s="23">
@@ -4460,22 +4350,22 @@
       </c>
     </row>
     <row r="18" spans="1:36" ht="15.6">
-      <c r="A18" s="45" t="s">
-        <v>119</v>
+      <c r="A18" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B18" s="8">
         <v>132</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>190</v>
+      <c r="C18" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="D18" s="8">
         <v>3.4400000000000003E-3</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="42">
         <v>0.09</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="42">
         <v>0.09</v>
       </c>
       <c r="G18" s="8">
@@ -4484,49 +4374,49 @@
       <c r="H18" s="8">
         <v>23</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <v>40.700000000000003</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <v>33.9</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="32">
         <v>25.4</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="32">
         <v>1.43</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="44">
         <v>0.35464000000000001</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="44">
         <v>0.20163</v>
       </c>
-      <c r="O18" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P18" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q18" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R18" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S18" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T18" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U18" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V18" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W18" s="33">
+      <c r="O18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W18" s="32">
         <v>-1</v>
       </c>
       <c r="X18" s="23">
@@ -4544,25 +4434,25 @@
       <c r="AB18" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC18" s="33">
+      <c r="AC18" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD18" s="33">
+      <c r="AD18" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE18" s="33">
+      <c r="AE18" s="32">
         <v>10</v>
       </c>
-      <c r="AF18" s="33">
+      <c r="AF18" s="32">
         <v>50</v>
       </c>
-      <c r="AG18" s="33">
+      <c r="AG18" s="32">
         <v>10</v>
       </c>
-      <c r="AH18" s="33">
+      <c r="AH18" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI18" s="33">
+      <c r="AI18" s="32">
         <v>8</v>
       </c>
       <c r="AJ18" s="23">
@@ -4570,22 +4460,22 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="15.6">
-      <c r="A19" s="45" t="s">
-        <v>119</v>
+      <c r="A19" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B19" s="8">
         <v>155</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>190</v>
+      <c r="C19" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="D19" s="8">
         <v>3.4400000000000003E-3</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="42">
         <v>0.08</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="42">
         <v>0.08</v>
       </c>
       <c r="G19" s="8">
@@ -4594,49 +4484,49 @@
       <c r="H19" s="8">
         <v>23</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="32">
         <v>39.4</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="32">
         <v>36.1</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="32">
         <v>24.5</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="32">
         <v>1.45</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="44">
         <v>0.36829999999999996</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="44">
         <v>0.19139999999999996</v>
       </c>
-      <c r="O19" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P19" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q19" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R19" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S19" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T19" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U19" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V19" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W19" s="33">
+      <c r="O19" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W19" s="32">
         <v>-1</v>
       </c>
       <c r="X19" s="23">
@@ -4654,25 +4544,25 @@
       <c r="AB19" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC19" s="33">
+      <c r="AC19" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD19" s="33">
+      <c r="AD19" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE19" s="33">
+      <c r="AE19" s="32">
         <v>10</v>
       </c>
-      <c r="AF19" s="33">
+      <c r="AF19" s="32">
         <v>50</v>
       </c>
-      <c r="AG19" s="33">
+      <c r="AG19" s="32">
         <v>10</v>
       </c>
-      <c r="AH19" s="33">
+      <c r="AH19" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI19" s="33">
+      <c r="AI19" s="32">
         <v>8</v>
       </c>
       <c r="AJ19" s="23">
@@ -4680,22 +4570,22 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="15.6">
-      <c r="A20" s="45" t="s">
-        <v>119</v>
+      <c r="A20" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B20" s="8">
         <v>200</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>190</v>
+      <c r="C20" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="D20" s="8">
         <v>3.4400000000000003E-3</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="42">
         <v>0.05</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="42">
         <v>0.05</v>
       </c>
       <c r="G20" s="8">
@@ -4704,49 +4594,49 @@
       <c r="H20" s="8">
         <v>23</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="35">
         <v>39.4</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="35">
         <v>36.1</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="35">
         <v>24.5</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="35">
         <v>1.45</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="44">
         <v>0.36829999999999996</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="44">
         <v>0.19139999999999996</v>
       </c>
-      <c r="O20" s="33">
-        <v>-1</v>
-      </c>
-      <c r="P20" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q20" s="33">
-        <v>-1</v>
-      </c>
-      <c r="R20" s="33">
-        <v>-1</v>
-      </c>
-      <c r="S20" s="33">
-        <v>-1</v>
-      </c>
-      <c r="T20" s="33">
-        <v>-1</v>
-      </c>
-      <c r="U20" s="33">
-        <v>-1</v>
-      </c>
-      <c r="V20" s="33">
-        <v>-1</v>
-      </c>
-      <c r="W20" s="33">
+      <c r="O20" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="32">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="32">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="32">
+        <v>-1</v>
+      </c>
+      <c r="V20" s="32">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="32">
         <v>-1</v>
       </c>
       <c r="X20" s="23">
@@ -4764,25 +4654,25 @@
       <c r="AB20" s="23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC20" s="33">
+      <c r="AC20" s="32">
         <v>0.6</v>
       </c>
-      <c r="AD20" s="33">
+      <c r="AD20" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE20" s="33">
+      <c r="AE20" s="32">
         <v>10</v>
       </c>
-      <c r="AF20" s="33">
+      <c r="AF20" s="32">
         <v>50</v>
       </c>
-      <c r="AG20" s="33">
+      <c r="AG20" s="32">
         <v>10</v>
       </c>
-      <c r="AH20" s="33">
+      <c r="AH20" s="32">
         <v>0.1</v>
       </c>
-      <c r="AI20" s="33">
+      <c r="AI20" s="32">
         <v>8</v>
       </c>
       <c r="AJ20" s="23">
@@ -4791,8 +4681,8 @@
     </row>
     <row r="21" spans="1:36" ht="15.6">
       <c r="A21" s="10"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
@@ -5170,14 +5060,14 @@
       <c r="AJ62" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E2"/>
@@ -5199,21 +5089,21 @@
         <v>12</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="8">
         <v>0.8</v>
@@ -5229,12 +5119,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K10"/>
@@ -5265,38 +5155,38 @@
         <v>4</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="14.4">
-      <c r="A2" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="38">
+      <c r="A2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="37">
         <v>38804</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="38">
         <v>39013</v>
       </c>
       <c r="D2">
@@ -5325,13 +5215,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.4">
-      <c r="A3" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="38">
+      <c r="A3" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="37">
         <v>39169</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>39378</v>
       </c>
       <c r="D3">
@@ -5360,13 +5250,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4">
-      <c r="A4" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="A4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="37">
         <v>39535</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>39755</v>
       </c>
       <c r="D4">
@@ -5395,13 +5285,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4">
-      <c r="A5" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="38">
+      <c r="A5" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="37">
         <v>39900</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>40095</v>
       </c>
       <c r="D5">
@@ -5430,13 +5320,13 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.4">
-      <c r="A6" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="38">
+      <c r="A6" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="37">
         <v>40265</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>40471</v>
       </c>
       <c r="D6">
@@ -5465,13 +5355,13 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.4">
-      <c r="A7" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="38">
+      <c r="A7" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="37">
         <v>40630</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="38">
         <v>40841</v>
       </c>
       <c r="D7">
@@ -5500,13 +5390,13 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.4">
-      <c r="A8" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="38">
+      <c r="A8" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="37">
         <v>40996</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="38">
         <v>41192</v>
       </c>
       <c r="D8">
@@ -5535,13 +5425,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.4">
-      <c r="A9" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="38">
+      <c r="A9" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="37">
         <v>41361</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="38">
         <v>41572</v>
       </c>
       <c r="D9">
@@ -5576,13 +5466,13 @@
       <c r="G10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AD3"/>
@@ -5604,7 +5494,7 @@
     <col min="14" max="14" width="9" style="8"/>
     <col min="15" max="15" width="18" style="8" customWidth="1"/>
     <col min="16" max="16" width="9" style="8"/>
-    <col min="17" max="22" width="9.109375" style="57"/>
+    <col min="17" max="22" width="9.109375" style="54"/>
     <col min="23" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -5613,96 +5503,96 @@
         <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="S1" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="U1" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="V1" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="Y1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="AC1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="31" t="s">
-        <v>121</v>
+      <c r="A2" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="B2" s="8">
         <v>16</v>
@@ -5719,10 +5609,10 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="32">
         <v>3</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="32">
         <v>110</v>
       </c>
       <c r="I2">
@@ -5747,22 +5637,22 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P2"/>
-      <c r="Q2" s="57">
+      <c r="Q2" s="54">
         <v>1</v>
       </c>
-      <c r="R2" s="57">
+      <c r="R2" s="54">
         <v>1</v>
       </c>
-      <c r="S2" s="57">
+      <c r="S2" s="54">
         <v>1</v>
       </c>
-      <c r="T2" s="57">
+      <c r="T2" s="54">
         <v>2.4</v>
       </c>
-      <c r="U2" s="57">
+      <c r="U2" s="54">
         <v>2.9</v>
       </c>
-      <c r="V2" s="57">
+      <c r="V2" s="54">
         <v>0</v>
       </c>
       <c r="W2">
@@ -5791,43 +5681,43 @@
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="45" t="s">
-        <v>156</v>
+      <c r="A3" s="43" t="s">
+        <v>152</v>
       </c>
       <c r="B3" s="8">
         <v>22</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>1</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="32">
         <v>0.53</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>0.97799999999999998</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>3</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="32">
         <v>3</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="32">
         <v>110</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="32">
         <v>166.7</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="32">
         <v>31.3</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="32">
         <v>0.73</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="32">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="32">
         <v>0.04</v>
       </c>
       <c r="N3" s="23">
@@ -5836,63 +5726,63 @@
       <c r="O3" s="23">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="57">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="54">
         <v>1</v>
       </c>
-      <c r="R3" s="57">
+      <c r="R3" s="54">
         <v>1</v>
       </c>
-      <c r="S3" s="57">
+      <c r="S3" s="54">
         <v>1</v>
       </c>
-      <c r="T3" s="57">
+      <c r="T3" s="54">
         <v>2.4</v>
       </c>
-      <c r="U3" s="57">
+      <c r="U3" s="54">
         <v>2.9</v>
       </c>
-      <c r="V3" s="57">
-        <v>0</v>
-      </c>
-      <c r="W3" s="33">
+      <c r="V3" s="54">
+        <v>0</v>
+      </c>
+      <c r="W3" s="32">
         <v>1</v>
       </c>
-      <c r="X3" s="33">
+      <c r="X3" s="32">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Y3" s="33">
+      <c r="Y3" s="32">
         <v>35</v>
       </c>
-      <c r="Z3" s="33">
+      <c r="Z3" s="32">
         <v>0.5</v>
       </c>
-      <c r="AA3" s="33">
+      <c r="AA3" s="32">
         <v>0.01</v>
       </c>
-      <c r="AB3" s="33">
+      <c r="AB3" s="32">
         <v>17.2</v>
       </c>
-      <c r="AC3" s="33">
+      <c r="AC3" s="32">
         <v>0.75</v>
       </c>
-      <c r="AD3" s="33">
+      <c r="AD3" s="32">
         <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5903,85 +5793,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>133</v>
+      <c r="A1" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>131</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>131</v>
+      <c r="D1" s="31" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>155</v>
+      <c r="D2" s="45" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>105</v>
+      <c r="D3" s="45" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="42"/>
+      <c r="A4" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="42"/>
+      <c r="A6" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="42"/>
+      <c r="A7" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="42"/>
+      <c r="A9" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6006,33 +5944,33 @@
         <v>12</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4">
       <c r="A2" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -6158,7 +6096,7 @@
       <c r="I11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6169,7 +6107,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -6194,79 +6132,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>164</v>
+      <c r="A1" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>158</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2" spans="1:22" ht="14.4">
-      <c r="A2" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>163</v>
+      <c r="A2" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>157</v>
       </c>
       <c r="C2" s="8">
         <v>42.017000000000003</v>
@@ -6330,11 +6268,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.4">
-      <c r="A3" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>163</v>
+      <c r="A3" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>157</v>
       </c>
       <c r="C3" s="8">
         <v>42.017000000000003</v>
@@ -6384,7 +6322,7 @@
       <c r="R3">
         <v>3</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="32">
         <v>10</v>
       </c>
       <c r="T3">
@@ -6398,11 +6336,11 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.4">
-      <c r="A4" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>163</v>
+      <c r="A4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>157</v>
       </c>
       <c r="C4" s="8">
         <v>42.017000000000003</v>
@@ -6452,7 +6390,7 @@
       <c r="R4">
         <v>3</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="32">
         <v>10</v>
       </c>
       <c r="T4">
@@ -6466,11 +6404,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.4">
-      <c r="A5" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>163</v>
+      <c r="A5" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>157</v>
       </c>
       <c r="C5" s="8">
         <v>42.017000000000003</v>
@@ -6520,7 +6458,7 @@
       <c r="R5">
         <v>3</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="32">
         <v>10</v>
       </c>
       <c r="T5">
@@ -6534,11 +6472,11 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.4">
-      <c r="A6" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>163</v>
+      <c r="A6" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>157</v>
       </c>
       <c r="C6" s="8">
         <v>42.017000000000003</v>
@@ -6588,7 +6526,7 @@
       <c r="R6">
         <v>3</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S6" s="32">
         <v>10</v>
       </c>
       <c r="T6">
@@ -6602,11 +6540,11 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.4">
-      <c r="A7" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>163</v>
+      <c r="A7" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>157</v>
       </c>
       <c r="C7" s="8">
         <v>42.017000000000003</v>
@@ -6656,7 +6594,7 @@
       <c r="R7">
         <v>3</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="32">
         <v>10</v>
       </c>
       <c r="T7">
@@ -6670,11 +6608,11 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.4">
-      <c r="A8" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>163</v>
+      <c r="A8" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>157</v>
       </c>
       <c r="C8" s="8">
         <v>42.017000000000003</v>
@@ -6724,7 +6662,7 @@
       <c r="R8">
         <v>3</v>
       </c>
-      <c r="S8" s="33">
+      <c r="S8" s="32">
         <v>10</v>
       </c>
       <c r="T8">
@@ -6738,11 +6676,11 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.4">
-      <c r="A9" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>163</v>
+      <c r="A9" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>157</v>
       </c>
       <c r="C9" s="8">
         <v>42.017000000000003</v>
@@ -6792,7 +6730,7 @@
       <c r="R9">
         <v>3</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="32">
         <v>10</v>
       </c>
       <c r="T9">
@@ -6809,7 +6747,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
     <sortCondition ref="A2:A11"/>
   </sortState>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6817,21 +6755,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.5546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="13" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="3" max="4" width="17" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -6841,151 +6779,178 @@
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.4">
-      <c r="A2" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="37">
+      <c r="D1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4">
+      <c r="A2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="36">
         <v>38808</v>
       </c>
       <c r="C2" s="15">
         <v>168.2</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
+      <c r="D2" s="15">
+        <v>5</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.4">
-      <c r="A3" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="37">
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4">
+      <c r="A3" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="36">
         <v>39173</v>
       </c>
       <c r="C3" s="15">
         <v>168.2</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
+      <c r="D3" s="15">
+        <v>5</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.4">
-      <c r="A4" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="37">
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4">
+      <c r="A4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="36">
         <v>39538</v>
       </c>
       <c r="C4" s="15">
         <v>168.2</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
+      <c r="D4" s="15">
+        <v>5</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.4">
-      <c r="A5" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="37">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4">
+      <c r="A5" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="36">
         <v>39904</v>
       </c>
       <c r="C5" s="15">
         <v>168.2</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
+      <c r="D5" s="15">
+        <v>5</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.4">
-      <c r="A6" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="37">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4">
+      <c r="A6" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="36">
         <v>40269</v>
       </c>
       <c r="C6" s="15">
         <v>80</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
+      <c r="D6" s="15">
+        <v>5</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.4">
-      <c r="A7" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="37">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4">
+      <c r="A7" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="36">
         <v>40634</v>
       </c>
       <c r="C7" s="15">
         <v>168.2</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
+      <c r="D7" s="15">
+        <v>5</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.4">
-      <c r="A8" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="37">
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4">
+      <c r="A8" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="36">
         <v>40999</v>
       </c>
       <c r="C8" s="15">
         <v>168.2</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
+      <c r="D8" s="15">
+        <v>5</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.4">
-      <c r="A9" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="37">
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4">
+      <c r="A9" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="36">
         <v>41365</v>
       </c>
       <c r="C9" s="15">
         <v>168.2</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
+      <c r="D9" s="15">
+        <v>5</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
       </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6998,7 +6963,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="13.2"/>
@@ -7016,30 +6981,33 @@
         <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>161</v>
+        <v>70</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4">
-      <c r="A2" s="41" t="s">
-        <v>119</v>
+      <c r="A2" s="39" t="s">
+        <v>117</v>
       </c>
       <c r="B2">
         <v>1.6</v>
@@ -7061,6 +7029,9 @@
       </c>
       <c r="H2" s="8">
         <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
       </c>
       <c r="J2" s="8">
         <f>0.05*1.6^2</f>
@@ -7068,8 +7039,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4">
-      <c r="A3" s="41" t="s">
-        <v>120</v>
+      <c r="A3" s="39" t="s">
+        <v>118</v>
       </c>
       <c r="B3">
         <v>1.6</v>
@@ -7091,6 +7062,9 @@
       </c>
       <c r="H3" s="8">
         <v>-7</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4">
@@ -7158,614 +7132,12 @@
       <c r="G11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B141"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="14" style="8" customWidth="1"/>
-    <col min="2" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="12.33203125" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.4">
-      <c r="A2" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.4">
-      <c r="A3" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.4">
-      <c r="A4" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.4">
-      <c r="A5" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.4">
-      <c r="A6" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.4">
-      <c r="A7" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="33">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.4">
-      <c r="A8" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.4">
-      <c r="A9" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="33">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.4">
-      <c r="A10" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.4">
-      <c r="A11" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.4">
-      <c r="A12" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.4">
-      <c r="A13" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="33">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.4">
-      <c r="A14" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="33">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.4">
-      <c r="A15" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.4">
-      <c r="A16" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="33">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.4">
-      <c r="A17" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.4">
-      <c r="A18" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.4">
-      <c r="A19" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.4">
-      <c r="A20" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.4">
-      <c r="A21" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.4">
-      <c r="A22" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="33">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.4">
-      <c r="A23" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.4">
-      <c r="A24" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="33">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.4">
-      <c r="A25" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.4">
-      <c r="A26" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.4">
-      <c r="A27" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.4">
-      <c r="A28" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="33">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.4">
-      <c r="A29" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="33">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.4">
-      <c r="A30" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.4">
-      <c r="A31" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="33">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="10"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="10"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="10"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="10"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="10"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="10"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="10"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="10"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="10"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="10"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="10"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="10"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="10"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="10"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="10"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="10"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="10"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="10"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="10"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="10"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="10"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="10"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="10"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="10"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="10"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="10"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="10"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="10"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="10"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="10"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="10"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="10"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="10"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="10"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="10"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="10"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="10"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="10"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="10"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="10"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="10"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="10"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="10"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="10"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="10"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="10"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="10"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="10"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="10"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="10"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="10"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="10"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="10"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="10"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="10"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="10"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="10"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="10"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="10"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="10"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="10"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="10"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="10"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="10"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="10"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="10"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="10"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="10"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="10"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="10"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="10"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="10"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="10"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="10"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="10"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="10"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="10"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="10"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="10"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="10"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="10"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="10"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="10"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="10"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="10"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="10"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="10"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="10"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="10"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="10"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="10"/>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="10"/>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="10"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="10"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="10"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="10"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="10"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="10"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="10"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="10"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="10"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="10"/>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="10"/>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="10"/>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="10"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="10"/>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="10"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="10"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="10"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q9"/>
@@ -7821,33 +7193,33 @@
         <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.4">
-      <c r="A2" s="31" t="s">
-        <v>123</v>
+      <c r="A2" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="B2" s="1">
         <v>86500</v>
@@ -7864,7 +7236,7 @@
       <c r="F2" s="6">
         <v>38810</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>38821</v>
       </c>
       <c r="H2" s="6">
@@ -7899,8 +7271,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.4">
-      <c r="A3" s="31" t="s">
-        <v>124</v>
+      <c r="A3" s="30" t="s">
+        <v>122</v>
       </c>
       <c r="B3" s="1">
         <v>86500</v>
@@ -7917,7 +7289,7 @@
       <c r="F3" s="6">
         <v>39175</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <v>39213</v>
       </c>
       <c r="H3" s="6">
@@ -7932,7 +7304,7 @@
       <c r="K3" s="24">
         <v>0</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="34">
         <v>4</v>
       </c>
       <c r="M3" s="24">
@@ -7947,13 +7319,13 @@
       <c r="P3" s="24">
         <v>1</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="34">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.4">
-      <c r="A4" s="31" t="s">
-        <v>125</v>
+      <c r="A4" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="B4" s="1">
         <v>86500</v>
@@ -7970,7 +7342,7 @@
       <c r="F4" s="6">
         <v>39540</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <v>39585</v>
       </c>
       <c r="H4" s="6">
@@ -7985,7 +7357,7 @@
       <c r="K4" s="24">
         <v>0</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="34">
         <v>4</v>
       </c>
       <c r="M4" s="24">
@@ -8000,13 +7372,13 @@
       <c r="P4" s="24">
         <v>1</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="34">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4">
-      <c r="A5" s="31" t="s">
-        <v>126</v>
+      <c r="A5" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="B5" s="1">
         <v>86500</v>
@@ -8023,7 +7395,7 @@
       <c r="F5" s="6">
         <v>39906</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <v>39925</v>
       </c>
       <c r="H5" s="6">
@@ -8038,7 +7410,7 @@
       <c r="K5" s="24">
         <v>0</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="34">
         <v>4</v>
       </c>
       <c r="M5" s="24">
@@ -8053,13 +7425,13 @@
       <c r="P5" s="24">
         <v>1</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="34">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.4">
-      <c r="A6" s="31" t="s">
-        <v>127</v>
+      <c r="A6" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="B6" s="1">
         <v>86500</v>
@@ -8076,7 +7448,7 @@
       <c r="F6" s="6">
         <v>40271</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>40289</v>
       </c>
       <c r="H6" s="7">
@@ -8091,7 +7463,7 @@
       <c r="K6" s="24">
         <v>0</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="34">
         <v>4</v>
       </c>
       <c r="M6" s="24">
@@ -8106,13 +7478,13 @@
       <c r="P6" s="24">
         <v>1</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="34">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.4">
-      <c r="A7" s="31" t="s">
-        <v>128</v>
+      <c r="A7" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="B7" s="1">
         <v>86500</v>
@@ -8129,7 +7501,7 @@
       <c r="F7" s="6">
         <v>40636</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <v>40667</v>
       </c>
       <c r="H7" s="6">
@@ -8144,7 +7516,7 @@
       <c r="K7" s="24">
         <v>0</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="34">
         <v>4</v>
       </c>
       <c r="M7" s="24">
@@ -8159,13 +7531,13 @@
       <c r="P7" s="24">
         <v>1</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="34">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.4">
-      <c r="A8" s="31" t="s">
-        <v>129</v>
+      <c r="A8" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="B8" s="1">
         <v>86500</v>
@@ -8182,7 +7554,7 @@
       <c r="F8" s="6">
         <v>41001</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <v>41026</v>
       </c>
       <c r="H8" s="6">
@@ -8197,7 +7569,7 @@
       <c r="K8" s="24">
         <v>0</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="34">
         <v>4</v>
       </c>
       <c r="M8" s="24">
@@ -8212,13 +7584,13 @@
       <c r="P8" s="24">
         <v>1</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="34">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.4">
-      <c r="A9" s="31" t="s">
-        <v>130</v>
+      <c r="A9" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="B9" s="1">
         <v>86500</v>
@@ -8235,7 +7607,7 @@
       <c r="F9" s="6">
         <v>41367</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <v>41413</v>
       </c>
       <c r="H9" s="6">
@@ -8250,7 +7622,7 @@
       <c r="K9" s="24">
         <v>0</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="34">
         <v>4</v>
       </c>
       <c r="M9" s="24">
@@ -8265,7 +7637,7 @@
       <c r="P9" s="24">
         <v>1</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="34">
         <v>76</v>
       </c>
     </row>
@@ -8273,14 +7645,14 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
     <sortCondition ref="A2:A11"/>
   </sortState>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C87"/>
@@ -8739,13 +8111,13 @@
       <c r="C87" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07935706-CD01-430B-9547-C61CB8ADB72F}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F1"/>
@@ -8760,23 +8132,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>171</v>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A301C4E-46EB-4704-9EBC-97EA806E0DBA}">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
